--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -527,471 +527,611 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Yousef Gamal El-Din</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="4" t="inlineStr"/>
-      <c r="E2" s="4" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr"/>
+          <t>Dr. Pankaj Jethwani</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pankajsj/</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>pankaj@wysa.com</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>pankaj.j89@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>+1 857-272-4725</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>2070 Health</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>https://2070health.com/</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Yousef Gamal</t>
+          <t>Pankaj</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>El-Din</t>
+          <t>Jethwani</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Gerald Lawless</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
+          <t>Lixia Zhu</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lixiazhu/</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>lixia@pnx5.com</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>lixia.zhu@columbia.edu</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>76Columbus Family Office</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>https://76columbus.com/</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Dubai | New York | London | Hong Kong</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Lixia</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>Lawless</t>
+          <t>Zhu</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Saima Jalal</t>
+          <t>Issa Aghabi</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Partner, Value Creation Services (VCS) Leader, Deloitte Middle East</t>
+          <t>Managing Director</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/saima-jalal-a42693112/</t>
+          <t>https://www.linkedin.com/in/iaghabi/</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>sjalal@deloitte.com</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>+1 212-492-4000</t>
-        </is>
-      </c>
+          <t>iaghabi@various.com</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>issa.aghabi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Access Bridge Ventures</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>http://www.deloitte.com/</t>
+          <t>http://access-bridge.com</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Saima</t>
+          <t>Issa</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>Jalal</t>
+          <t>Aghabi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>John D'Agostino</t>
+          <t>Taimoor Labib</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Head of Strategy: Institutional</t>
+          <t>Founding Partner at Affirma Capital, Head of MENA &amp; Chairman of Africa</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/johnjdagostino1/</t>
+          <t>https://www.linkedin.com/in/taimoor-labib-9443b/</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>john@Distilledidentity.com</t>
+          <t>tlabib@hotmail.com</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>john.dagostino@coinbase.com</t>
+          <t>taimoor.labib@affirmacapital.com</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>+1 415-843-1515</t>
+          <t>+65 6500 7920</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Affirma Capital</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>http://www.coinbase.com</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>New York, United States</t>
-        </is>
-      </c>
+          <t>http://www.affirmacapital.com</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Taimoor</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>D'Agostino</t>
+          <t>Labib</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Muteb Al Shathri</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
+          <t>Pranav Sharma</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Founder</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pranav-sharma-7a05b13/</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>pranav@zeroswap.io</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>pranav.sharma@orion.xyz</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>+91 95940 33190</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Agna</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>www.agnaholdings.com</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>UAE | Cayman Islands | India</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Muteb Al</t>
+          <t>Pranav</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Shathri</t>
+          <t>Sharma</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Saed Arar</t>
+          <t>Jameel Anz</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Executive Director - Head of Infrastructure Investments</t>
+          <t>Managing Director - SME Investment Fund</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/saed-arar-b007555a/</t>
+          <t>https://www.linkedin.com/in/jameel-anz-cfa-3816513/</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>sarar@mubadala.ae</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+          <t>jameel.anz@arabbank.com</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>jameelanz@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>+962 6 552 2239</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Mubadala Investment Company</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
+          <t>Al Arabi Investment Group Co. (AB Invest)</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>http://www.ab-invest.net</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Amman, Amman, Jordan</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Saed</t>
+          <t>Jameel</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>Arar</t>
+          <t>Anz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Dr. Jörg Goschin</t>
+          <t>Khalid Chami</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Co-CEO and Senior Managing Director</t>
+          <t>Group Chief Financial Officer</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/j%C3%B6rg-goschin-06329661/</t>
+          <t>https://www.linkedin.com/in/khalid-chami-2a62536/</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>joerg.goschin@gmail.com</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr"/>
+          <t>khalid.chami@ali-sons.com</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>khalid2025@gmail.com</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>+49 69 74318880</t>
+          <t>+971 56 827 9738</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>KfW Capital</t>
+          <t>Ali &amp; Sons Holding LLC</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>http://www.kfw-capital.de</t>
+          <t>http://www.ali-sons.com</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Frankfurt am Main und Umgebung, Deutschland</t>
+          <t>Abu Dhabi Emirate, United Arab Emirates · On-site</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Jörg</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>Goschin</t>
+          <t>Chami</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Anis Saif</t>
+          <t>Jorge Felippe</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Senior Director - Principal Investments</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/anis-saif-7110811/</t>
+          <t>https://www.linkedin.com/in/jorge-felippe/</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>anis.saif@gmail.com</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr"/>
+          <t>jfelippe.mba2008@london.edu</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>jorge@ultimate-stay.com</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Gulf Investment Corporation - GIC</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr"/>
+          <t>Almulla Capital</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>http://almullacapital.com/</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>Kuwait, GCC</t>
+          <t>Dubai, United Arab Emirates · On-site</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Anis</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>Saif</t>
+          <t>Felippe</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Sean Daykin</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr"/>
+          <t>Alexandre Alfonsi</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandrealfonsi/</t>
+        </is>
+      </c>
       <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Alternal</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>Daykin</t>
+          <t>Alfonsi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Jorge Felippe</t>
+          <t>Raida Daouk</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Founder &amp; Managing Partner</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jorge-felippe/</t>
+          <t>https://www.linkedin.com/in/raidadaouk/</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>jfelippe.mba2008@london.edu</t>
+          <t>raida@bch.co</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>jorge@ultimate-stay.com</t>
+          <t>raida.daouk@gmail.com</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Almulla Capital</t>
+          <t>Amkan Ventures</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>http://almullacapital.com/</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates · On-site</t>
-        </is>
-      </c>
+          <t>https://www.amkanventures.com/</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Raida</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>Felippe</t>
+          <t>Daouk</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Khalid Chami</t>
+          <t>Sharif Eid</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Group Chief Financial Officer</t>
+          <t>Partner - Portfolio Manager</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/khalid-chami-2a62536/</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/sharif-eid-22056a19/</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>sharif.eid@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>sharif@amwalcp.com</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Ali &amp; Sons Holding LLC</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Abu Dhabi Emirate, United Arab Emirates · On-site</t>
-        </is>
-      </c>
+          <t>Amwal Capital Partners</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>http://www.amwalcp.com</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>Chami</t>
+          <t>Eid</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Dr Ruchi Dana</t>
+          <t>Aaron Weaver</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Partner and Executive Board Member</t>
+          <t>Venture Partner</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/danaruchi/</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/aaron-weaver-cfa-31322769/</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>aweaver@bionomics.com.au</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>aaronweaver81@hotmail.com</t>
+        </is>
+      </c>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>DANA Group (www.danagroups.com)</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr"/>
+          <t>Apeiron Investment Group</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>http://apeiron-investments.com/</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
           <t>Dubai, United Arab Emirates</t>
@@ -999,176 +1139,284 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Ruchi</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Weaver</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Asif Khan</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
+          <t>Khaled Lababidi</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Operating Partner</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/khaled-lababidi-5793414/</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>khaled@arborventures.com</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>klababidi@gmail.com</t>
+        </is>
+      </c>
       <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Arbor Ventures</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>http://www.arborventures.com</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Asif</t>
+          <t>Khaled</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Lababidi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Zain Shamim</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
+          <t>Nicolas Michelon</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nicolas-michelon-6903a15b/</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>michelon@ege.fr</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>nicolas@thekootneeti.com</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>+33 6 35 25 45 98</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Asia Intelligence Advisory</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>http://confluenceservices.com/</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Paris, Île-de-France, France</t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>Zain</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Shamim</t>
+          <t>Michelon</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Jean Morcos</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
+          <t>Alex Bebov</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexbebovbac/</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>alex@bac.bg</t>
+        </is>
+      </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>BAC (BAC Securities, BAC Ltd., BAC Green Energy)</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom and Central Europe</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Morcos</t>
+          <t>Bebov</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Khurram Waheed</t>
+          <t>Anshul Govila</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Advisor to The Chairman,</t>
+          <t>Executive Director Strategy</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/khurram-waheed-02072618/</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/dranshulgovila/</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>agovila@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>+971 50 321 2194</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Eurasian Development Bank</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
+          <t>Bait Al-Batterjee Medical Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>http://www.dubaichambers.com</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Toronto, Ontario, Canada/ Dubai, United Arab Emirates/Almaty, Kazakhstan</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>Khurram</t>
+          <t>Anshul</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>Waheed</t>
+          <t>Govila</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Aaron Weaver</t>
+          <t>Manoj Narender Madnani</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Venture Partner</t>
+          <t>Co-Founder, Chairman</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/aaron-weaver-cfa-31322769/</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/manoj-narender-madnani/</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>manoj@betswap.gg</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>manoj@goqii.com</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>+971 4 330 0672</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Apeiron Investment Group</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr"/>
+          <t>Beacon Media</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>www.mara.com</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Manoj Narender</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>Weaver</t>
+          <t>Madnani</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Lixia Zhu</t>
+          <t>Jason Mehring</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1178,1224 +1426,1976 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lixiazhu/</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/jason-mehring-366218222/</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>jason.mehring@blackrock.com</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>+1 212-810-5300</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76Columbus Family Office</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr"/>
+          <t>BlackRock</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>http://www.blackrock.com</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Dubai | New York | London | Hong Kong</t>
+          <t>Chicago, Illinois, United States</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>Lixia</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>Zhu</t>
+          <t>Mehring</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Vishnu Amble</t>
+          <t>Aly Madhavji</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Founding Director, Investment Committee Member and Trustee</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/vishnuamble/</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/alymadhavji/</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>aly@splinterlands.com</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>aly@jauntin.com</t>
+        </is>
+      </c>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>GreenBear Group LLC - Single-family investment office &amp; mission-driven philanthropic organization</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr"/>
+          <t>Blockchain Founders Fund</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>https://blockchainff.com/</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Tokyo, Japan / Florida, USA</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>Vishnu</t>
+          <t>Aly</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>Amble</t>
+          <t>Madhavji</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Carman Chan</t>
+          <t>Fanglu Wang</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Founder and Managing Partner</t>
+          <t>MANAGING DIRECTOR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/carmanchan/</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/fanglu-wang-672b02/</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>fangluwang@citiccapital.com</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>+1 212-395-9767</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Click Ventures</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
+          <t>CITIC CAPITAL</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>http://www.citiccapital.com/</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>Carman</t>
+          <t>Fanglu</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>Chan</t>
+          <t>Wang</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Jaspreet Randhawa</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="4" t="inlineStr"/>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Omar Gull</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer and Founder</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/omargull/</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>omar@amisproperties.com</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>omargull@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>+971 4 258 5271</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>CLEDOR</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>www.cledor.com</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates · On-site</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>Jaspreet</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>Randhawa</t>
+          <t>Gull</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Özge Doğan</t>
+          <t>Serge Lépine</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Founder</t>
+          <t>Founder and Managing Partner</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/%C3%B6zge-do%C4%9Fan-74b87923b/</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr"/>
-      <c r="E23" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/serge-lepine/</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>serge.lepine@bmhc.bh</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>serge@cabotcapital.co</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>KARMAN BEYOND</t>
+          <t>Cabot Capital Partners</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>On-site</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>Özge</t>
+          <t>Serge</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>Doğan</t>
+          <t>Lépine</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Scott B. Garfield</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr"/>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Rajeev Kalambi</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>General Partner</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rajeevkalambi/</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>rajeev_kalambi@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>rajeev.kalambi@cactusvp.com</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>+91 22 6714 8877</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Cactus Partners</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>http://www.cactusvp.com</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>Scott B.</t>
+          <t>Rajeev</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>Garfield</t>
+          <t>Kalambi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Hans-Jörg Baumann</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
+          <t>Alexandre Santos</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>General Partner &amp; Founder</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/antscv/</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>alexandre@chamaeleon.vc</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>asantos@ganexacapital.com</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Chamaeleon</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>http://www.chamaeleon.vc</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>Hans-Jörg</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>Baumann</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Edward Holdsworth</t>
+          <t>Venkatesh Peddi</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Managing Director, Secondary team</t>
+          <t>Managing Director &amp; Partner</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/edward-holdsworth-17667148/</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/venkateshpeddi/</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>venkatesh_peddi@idgvcindia.com</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>venkatesh@chiratae.com</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>+91 11 4945 7700</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>HarbourVest Partners</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr"/>
+          <t>Chiratae Ventures</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>http://chiratae.com/</t>
+        </is>
+      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Venkatesh</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>Holdsworth</t>
+          <t>Peddi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Christiaan de Lint</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr"/>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
+          <t>Carman Chan</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Founder and Managing Partner</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/carmanchan/</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>carman@c4cat.com</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>c-carman@thefewgroup.com</t>
+        </is>
+      </c>
       <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Click Ventures</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>http://www.clickventures.vc</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Christiaan de</t>
+          <t>Carman</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>Lint</t>
+          <t>Chan</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Sara Nayef Al-Ateeqi</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr"/>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="3" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
+          <t>Jenni Risku</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Impact Partner</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jennirisku/</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>jenni@clickventures.vc</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>jenni@womenintech.sg</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>+65 9425 7747</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Click Ventures</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>http://www.clickventures.vc</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>Sara Nayef</t>
+          <t>Jenni</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>Al-Ateeqi</t>
+          <t>Risku</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Jason Mehring</t>
+          <t>John D'Agostino</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Managing Director</t>
+          <t>Head of Strategy: Institutional</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jason-mehring-366218222/</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/johnjdagostino1/</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>john@Distilledidentity.com</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>john.dagostino@coinbase.com</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>+1 415-843-1515</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>BlackRock</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr"/>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>http://www.coinbase.com</t>
+        </is>
+      </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Chicago, Illinois, United States</t>
+          <t>New York, United States</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>John</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>Mehring</t>
+          <t>D'Agostino</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Mohieddine Kronfol</t>
+          <t>Anna Tutova</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CIO Global Sukuk &amp; MENA Fixed Income</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/mohieddine-dino-kronfol-a20617/</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/anna-tutova/</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>anna.tutova@allianceapi.com</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>at@introducing-leaders.co.uk</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>+380 66 891 7994</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Franklin Templeton Investments</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+          <t>Coinstelegram</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>https://coinstelegram.com/</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>Mohieddine</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>Kronfol</t>
+          <t>Tutova</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Jaroslava Korpanec</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
+          <t>Dr Ruchi Dana</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Partner and Executive Board Member</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/danaruchi/</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>ruchi@mbxcapital.com</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>ruchi.dana@advisorycloud.com</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>+1 650-796-9277</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>DANA Group (www.danagroups.com)</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>http://mfvpartners.com</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>Jaroslava</t>
+          <t>Ruchi</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>Korpanec</t>
+          <t>Dana</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Dr Karim El Solh</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="4" t="inlineStr"/>
+          <t>Saima Jalal</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Partner, Value Creation Services (VCS) Leader, Deloitte Middle East</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/saima-jalal-a42693112/</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>sjalal@deloitte.com</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>+1 212-492-4000</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>http://www.deloitte.com/</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>Karim El</t>
+          <t>Saima</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>Solh</t>
+          <t>Jalal</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Walid Mansour</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="4" t="inlineStr"/>
-      <c r="E33" s="4" t="inlineStr"/>
+          <t>Mark Kleyner</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/markkleyner/</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>mark.kleyner@bit.ly</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>mark.kleyner@eutic.org</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Dream VC</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>http://www.dream-vc.com</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>Walid</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>Mansour</t>
+          <t>Kleyner</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Yaser Moustafa</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="4" t="inlineStr"/>
-      <c r="E34" s="4" t="inlineStr"/>
+          <t>Ziad Makkawi</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Founder &amp; CEO</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ziadmakkawi/</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>zmakkawi@gmail.com</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>zmakkawi@equiam.com</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>EQUIAM</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>https://equiam.com</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>San Francisco, California - USA</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>Yaser</t>
+          <t>Ziad</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>Moustafa</t>
+          <t>Makkawi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Fanglu Wang</t>
+          <t>Thomas Williams</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>MANAGING DIRECTOR</t>
+          <t>General Partner</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/fanglu-wang-672b02/</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/thomas-williams-755a8114/</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>tspencerwilliams@gmail.com</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>tspencerwilliams@gmail.com</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>+44 20 3542 6260</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>CITIC CAPITAL</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Elder Gull</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>http://www.taliscapital.com</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>Fanglu</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Williams</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Tamer Azer</t>
+          <t>Akshay Arora</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Partner</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/tamerazer/</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/akshayarora/</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>akshay.arora@bit.ly</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>akshay.arora@fastercapital.com</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>+971 58 264 6199</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Shorooq Partners</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="inlineStr"/>
+          <t>Euphoria Capital Partners</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>http://www.euphoriacapitalpartners.com</t>
+        </is>
+      </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>Tamer</t>
+          <t>Akshay</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>Azer</t>
+          <t>Arora</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Michael Burt</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr"/>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="4" t="inlineStr"/>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Khurram Waheed</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Advisor to The Chairman,</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/khurram-waheed-02072618/</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>khurramtabish@gmail.com</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>kw@eabr.org</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>+971 50 884 9247</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Eurasian Development Bank</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>https://eabr.org/en/</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Toronto, Ontario, Canada/ Dubai, United Arab Emirates/Almaty, Kazakhstan</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Khurram</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>Burt</t>
+          <t>Waheed</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Sonia Gokhale</t>
+          <t>Eid Alrashidi</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>General Partner and Co-Founder</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sonia-seth-gokhale-b0906014/</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr"/>
-      <c r="E38" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/eidalrashidi/</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>eid.alrashidi@tgleaders.com</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>eid.alrashidi@fgacw.com</t>
+        </is>
+      </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>VentureSouq</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr"/>
+          <t>FGA PARTNERS LLC</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>http://www.fgacw.com</t>
+        </is>
+      </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>kuwait</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Eid</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>Gokhale</t>
+          <t>Alrashidi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Rateel Alshehri</t>
+          <t>Mohieddine Kronfol</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>CIO Global Sukuk &amp; MENA Fixed Income</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/rateel-alshehri-4bb717331/</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr"/>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/mohieddine-dino-kronfol-a20617/</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>dino.kronfol@franklintempleton.com</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>mkronfol@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>+1 650-312-2000</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Rateel Alpha Talk</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+          <t>Franklin Templeton Investments</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>http://www.franklinresources.com</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>Rateel</t>
+          <t>Mohieddine</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>Alshehri</t>
+          <t>Kronfol</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Chris Macbeth</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr"/>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="4" t="inlineStr"/>
-      <c r="E40" s="4" t="inlineStr"/>
+          <t>Noor Sweid</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Founder and Managing Partner</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/noor-sweid-4b5233/</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>nsweid@nexford.edu</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>nsweid@proximie.com</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Global Ventures</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>https://www.global.vc/</t>
+        </is>
+      </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Noor</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>Macbeth</t>
+          <t>Sweid</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Vanessa Abernethy</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr"/>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
+          <t>Vishnu Amble</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Founding Director, Investment Committee Member and Trustee</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vishnuamble/</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>vishnu.amble@techstars.com</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>vishnu@alchemistaccelerator.com</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>GreenBear Group LLC - Single-family investment office &amp; mission-driven philanthropic organization</t>
+        </is>
+      </c>
       <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Tokyo, Japan / Florida, USA</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Vishnu</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>Abernethy</t>
+          <t>Amble</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Bilal Abou-Diab</t>
+          <t>Anis Saif</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Co-Founder &amp; CEO</t>
+          <t>Senior Director - Principal Investments</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/bilal-abou-diab-cfa/</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr"/>
-      <c r="E42" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/anis-saif-7110811/</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>anis.saif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Vault</t>
+          <t>Gulf Investment Corporation - GIC</t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Kuwait, GCC</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>Bilal</t>
+          <t>Anis</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>Abou-Diab</t>
+          <t>Saif</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Issa Aghabi</t>
+          <t>Edward Holdsworth</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Managing Director</t>
+          <t>Managing Director, Secondary team</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/iaghabi/</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr"/>
-      <c r="E43" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/edward-holdsworth-17667148/</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>holdsworthedward@gmail.com</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Access Bridge Ventures</t>
+          <t>HarbourVest Partners</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>Issa</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>Aghabi</t>
+          <t>Holdsworth</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Zainab Al Sharif</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr"/>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="4" t="inlineStr"/>
-      <c r="E44" s="4" t="inlineStr"/>
+          <t>Nader Amiri</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>General Partner</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nader-amiri-cpg/</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>nader@homegrowncpg.com</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>nader.amiri@gmail.com</t>
+        </is>
+      </c>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Homegrown Ventures</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>https://www.homegrowncpg.com</t>
+        </is>
+      </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>Zainab Al</t>
+          <t>Nader</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Amiri</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Hala Al Taher</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr"/>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="4" t="inlineStr"/>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
+          <t>Khuram Maqsood</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/khuram-maqsood-3011a6/</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>kmaqsood@HL.com</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>kmaqsood@measacapital.com</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>+1 310-553-8871</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Houlihan Lokey</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>http://www.HL.com</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>Hala Al</t>
+          <t>Khuram</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>Taher</t>
+          <t>Maqsood</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Omar Al Yawer</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr"/>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="4" t="inlineStr"/>
-      <c r="E46" s="4" t="inlineStr"/>
+          <t>Ida Beerhalter</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Co-Head</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ida-b-1571352/</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>ida@aescuvest.de</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>ida@theabrahamicbusinesscircle.com</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>IOME Private Investment Office</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Kingdom of Saudi Arabia</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>Omar Al</t>
+          <t>Ida</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>Yawer</t>
+          <t>Beerhalter</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Mohamed Aladdin</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr"/>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="4" t="inlineStr"/>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
+          <t>Emma Crabtree</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Group Chief Commercial Officer</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/emma-crabtree-92080267/</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>emma.l.crabtree@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>emma.crabtree@iqeq.com</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>+44 28 9590 7500</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>IQ-EQ</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>http://www.iqeq.com</t>
+        </is>
+      </c>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Crabtree</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Ahmad Alanani</t>
+          <t>Herve Cuviliez</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Co-Founder &amp; CEO</t>
+          <t>Co-Founder</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ahmad-alanani-cfa-%F0%9F%8D%89-69a3582/</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr"/>
-      <c r="E48" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/hervecuviliez/</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>herve.cuviliez@webedia-group.com</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>herve.cuviliez@diwanee.com</t>
+        </is>
+      </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Sancta Capital Group</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+          <t>Id4 ventures</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>http://www.id4.vc</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Herve</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>Alanani</t>
+          <t>Cuviliez</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Nader AlBastaki</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr"/>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
+          <t>Paula Tavangar</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Chief Investment Officer</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/paulatavangar/</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>paula@genesislat.com</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>paula@injaz-capital.com</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Injaz Capital</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>www.injaz-capital.com</t>
+        </is>
+      </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>Nader Al</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>Bastaki</t>
+          <t>Tavangar</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Jonathan Alden</t>
+          <t>Özge Doğan</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SVP - Head of Investor Relations</t>
+          <t>Founder</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jonathan-alden-cfa-57671538/</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr"/>
-      <c r="E50" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/%C3%B6zge-do%C4%9Fan-74b87923b/</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Vintage Investment Partners</t>
+          <t>KARMAN BEYOND</t>
         </is>
       </c>
       <c r="H50" s="3" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Özge</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>Alden</t>
+          <t>Doğan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Alexandre Alfonsi</t>
+          <t>Hisham Kassim</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Owner</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/alexandrealfonsi/</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr"/>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/hisham-kassim/</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>hisham.kassim@endeavor.org</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>hisham@gazaskygeeks.com</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>+1 202-738-4388</t>
+        </is>
+      </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Alternal</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
+          <t>Kassim Legal</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>https://kassimlegal.com/</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Washington, District of Columbia, United States</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Hisham</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>Alfonsi</t>
+          <t>Kassim</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Racha Alkhawaja</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="4" t="inlineStr"/>
+          <t>Dr. Jörg Goschin</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Co-CEO and Senior Managing Director</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/j%C3%B6rg-goschin-06329661/</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>joerg.goschin@gmail.com</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="3" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>+49 69 74318880</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>KfW Capital</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>http://www.kfw-capital.de</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main und Umgebung, Deutschland</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>Racha</t>
+          <t>Jörg</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>Alkhawaja</t>
+          <t>Goschin</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Hossam Allam</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr"/>
-      <c r="C53" s="3" t="inlineStr"/>
-      <c r="D53" s="4" t="inlineStr"/>
-      <c r="E53" s="4" t="inlineStr"/>
+          <t>Walid Faza</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Partner &amp; Chief Operating Officer</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/walidfaza/</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>walid.faza@gmail.com</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>walid@msacap.com</t>
+        </is>
+      </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="3" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>MSA Novo</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>https://msanovo.com/</t>
+        </is>
+      </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Walid</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>Allam</t>
+          <t>Faza</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Mohammed Almeshekah</t>
+          <t>Rema Alyahya</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Founder &amp; General Partner</t>
+          <t>Vice President</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/meshekah/</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr"/>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/remaalyahya/</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>rema.alyahya@srmg.com</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>remafalyahya@gmail.com</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>+966 11 441 8060</t>
+        </is>
+      </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Outliers Venture Capital</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="inlineStr"/>
+          <t>Merak Capital</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>https://www.srmg.com/</t>
+        </is>
+      </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>Mohammed</t>
+          <t>Rema</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>Almeshekah</t>
+          <t>Alyahya</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Eid Alrashidi</t>
+          <t>Saed Arar</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Executive Director - Head of Infrastructure Investments</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/eidalrashidi/</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr"/>
-      <c r="E55" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/saed-arar-b007555a/</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>sarar@mubadala.ae</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>FGA PARTNERS LLC</t>
+          <t>Mubadala Investment Company</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>kuwait</t>
-        </is>
-      </c>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>Eid</t>
+          <t>Saed</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>Alrashidi</t>
+          <t>Arar</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Rema Alyahya</t>
+          <t>Aanchal Dua</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Vice President</t>
+          <t>Investor Relations</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/remaalyahya/</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr"/>
-      <c r="E56" s="4" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/aanchal-dua-5b3197102/</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>aanchal.dua28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>+971 4 439 6769</t>
+        </is>
+      </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Merak Capital</t>
-        </is>
-      </c>
-      <c r="H56" s="3" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
+          <t>NAV Capital Limited</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>https://navcapital.ae/</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>Rema</t>
+          <t>Aanchal</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>Alyahya</t>
+          <t>Dua</t>
         </is>
       </c>
     </row>
@@ -2415,15 +3415,27 @@
           <t>https://www.linkedin.com/in/mohammedalzubi/</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr"/>
-      <c r="E57" s="4" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>mohammed@oqal.org</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>mohammed@jafarshop.com</t>
+        </is>
+      </c>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Nama Ventures</t>
         </is>
       </c>
-      <c r="H57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>https://www.namaventures.com</t>
+        </is>
+      </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MENA</t>
@@ -2443,144 +3455,212 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Nader Amiri</t>
+          <t>Ariel Ezrahi</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>General Partner</t>
+          <t>Director of Climate Strategy &amp; Initiatives, Head of DACH Region</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/nader-amiri-cpg/</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr"/>
-      <c r="E58" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/ariel-ezrahi-bb796a20/</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>aezrahi@AtlanticCouncil.org</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>ezrahia@yahoo.com</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Homegrown Ventures</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
+          <t>NewVest</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>https://www.newvest.com</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Berlin, Germany</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>Nader</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>Amiri</t>
+          <t>Ezrahi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Ambar Amleh</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr"/>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="4" t="inlineStr"/>
-      <c r="E59" s="4" t="inlineStr"/>
+          <t>Khaled Talhouni</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Managing Partner</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/khaledtalhouni/</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>khaled@nextbillion.capital</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>khaled.talhouni@gmail.com</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="3" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Nuwa Capital</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>http://www.nextbillion.capital</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>Ambar</t>
+          <t>Khaled</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>Amleh</t>
+          <t>Talhouni</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Jameel Anz</t>
+          <t>Ekaterina Chernova</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Managing Director - SME Investment Fund</t>
+          <t>Managing Partner, Founder</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jameel-anz-cfa-3816513/</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr"/>
-      <c r="E60" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/ekaterina-chernova-b99199/</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>e.chernova@cfcm.ru</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Al Arabi Investment Group Co. (AB Invest)</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="inlineStr"/>
+          <t>Octagon</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>https://octoglobal.ae</t>
+        </is>
+      </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>Amman, Amman, Jordan</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>Jameel</t>
+          <t>Ekaterina</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>Anz</t>
+          <t>Chernova</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Akshay Arora</t>
+          <t>Mark Kahn</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/akshayarora/</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="inlineStr"/>
-      <c r="E61" s="4" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/mark-kahn-20490a/</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>mark@omnivore.vc</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>mkahn@mba2006.hbs.edu</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>+91 22 2519 4490</t>
+        </is>
+      </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Euphoria Capital Partners</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr"/>
+          <t>Omnivore</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>http://www.omnivore.vc</t>
+        </is>
+      </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Mumbai Area, India</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>Akshay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>Arora</t>
+          <t>Kahn</t>
         </is>
       </c>
     </row>
@@ -2600,15 +3680,31 @@
           <t>https://www.linkedin.com/in/williambaobean/</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr"/>
-      <c r="E62" s="4" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>william.bean@italki.com</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>william@h2.co</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>+86 186 2158 6213</t>
+        </is>
+      </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Orbit Startups</t>
         </is>
       </c>
-      <c r="H62" s="3" t="inlineStr"/>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>https://orbitstartups.com/</t>
+        </is>
+      </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
           <t>Shanghai City, China</t>
@@ -2628,994 +3724,1458 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Federico Bazzoni</t>
+          <t>Sara Enan</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>CEO, Investment Banking</t>
+          <t>Principal</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/federico-bazzoni-1a51a94/</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/sara-enan-7516571a/</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>sara@oryxfund.com</t>
+        </is>
+      </c>
       <c r="E63" s="4" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Vantage Capital Markets</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr"/>
+          <t>Oryx Fund</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>https://www.oryxfund.com</t>
+        </is>
+      </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>Hong Kong SAR</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Federico</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>Bazzoni</t>
+          <t>Enan</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Alex Bebov</t>
+          <t>Mohammed Almeshekah</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Founder &amp; General Partner</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/alexbebovbac/</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr"/>
-      <c r="E64" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/meshekah/</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>mohammed.almeshekah@penny.co</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>mohammed.almeshekah@endeavor.org</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>BAC (BAC Securities, BAC Ltd., BAC Green Energy)</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>London, England, United Kingdom and Central Europe</t>
-        </is>
-      </c>
+          <t>Outliers Venture Capital</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>https://outliers.vc</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Mohammed</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>Bebov</t>
+          <t>Almeshekah</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>Ida Beerhalter</t>
+          <t>Amine Bentaleb</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Co-Head</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ida-b-1571352/</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr"/>
-      <c r="E65" s="4" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/amine-bentaleb-48bb2239/</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>amine.b@inurture.co.in</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>abentaleb@AccessVascularInc.com</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>+971 55 330 8266</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>IOME Private Investment Office</t>
+          <t>Patrimium - a Global Multi Family Office</t>
         </is>
       </c>
       <c r="H65" s="3" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>Kingdom of Saudi Arabia</t>
+          <t>Dubai, United Arab Emirates · On-site</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>Ida</t>
+          <t>Amine</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>Beerhalter</t>
+          <t>Bentaleb</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Amine Bentaleb</t>
+          <t>Sheikh Muhammad Noman</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Founder &amp; CEO</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/amine-bentaleb-48bb2239/</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr"/>
-      <c r="E66" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/sheikh-muhammad-noman-follow-only-a6819a47/</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>sheikh.noman@mwanmobile.com</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>sheikhnoman1@hotmail.com</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Patrimium - a Global Multi Family Office</t>
-        </is>
-      </c>
-      <c r="H66" s="3" t="inlineStr"/>
+          <t>Pegasus Capital Investments</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>https://www.pegasusci.co/</t>
+        </is>
+      </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates · On-site</t>
+          <t>On-site</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>Amine</t>
+          <t>Sheikh Muhammad</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>Bentaleb</t>
+          <t>Noman</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Rene Canezin</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="3" t="inlineStr"/>
-      <c r="D67" s="4" t="inlineStr"/>
-      <c r="E67" s="4" t="inlineStr"/>
+          <t>Hasan Haider</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Founder and Managing Partner</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hasanhaider/</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>hasan@eatapp.co</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>hasan@plus.vc</t>
+        </is>
+      </c>
       <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="3" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Plus VC (+VC)</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>http://www.plus.vc</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Hasan</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>Canezin</t>
+          <t>Haider</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Cliff Chau</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr"/>
-      <c r="C68" s="3" t="inlineStr"/>
-      <c r="D68" s="4" t="inlineStr"/>
-      <c r="E68" s="4" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="3" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
+          <t>Alex Murray</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>VP, Head of Real Assets, Research Insights</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexmurrayucl/</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>alex.murray@preqin.com</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>amtmurray@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>+44 20 3207 0200</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Preqin</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>https://www.preqin.com</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>Chau</t>
+          <t>Murray</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>Ekaterina Chernova</t>
+          <t>Jeffrey Lau</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Managing Partner, Founder</t>
+          <t>Partner; CEO/CIO, Private Credit and Special Situations</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ekaterina-chernova-b99199/</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/jeffreyclau/</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>jlau@mba2004.hbs.edu</t>
+        </is>
+      </c>
       <c r="E69" s="4" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>+86 10 8559 8988</t>
+        </is>
+      </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Octagon</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr"/>
+          <t>Primavera Capital Group 春华资本集团</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>https://www.primavera-capital.com/</t>
+        </is>
+      </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>Ekaterina</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>Chernova</t>
+          <t>Lau</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>Namit Chugh</t>
+          <t>Abrar Mir</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Principal</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/namitchugh/</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr"/>
-      <c r="E70" s="4" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/abrar-mir/</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>abrar.mir@concung.com</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>abrar.mir@royal-healthcare.com</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>+65 6805 9699</t>
+        </is>
+      </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>W Health Ventures</t>
-        </is>
-      </c>
-      <c r="H70" s="3" t="inlineStr"/>
+          <t>Quadria Capital</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>http://www.quadriacapital.com</t>
+        </is>
+      </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>Namit</t>
+          <t>Abrar</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>Chugh</t>
+          <t>Mir</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Mounir Corm</t>
+          <t>Rateel Alshehri</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Deputy Chief Executive Officer - Founding Partner</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/mounir-corm-4201b3b/</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="inlineStr"/>
-      <c r="E71" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/rateel-alshehri-4bb717331/</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Vauban Infrastructure Partners</t>
+          <t>Rateel Alpha Talk</t>
         </is>
       </c>
       <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Paris Area, France</t>
-        </is>
-      </c>
+      <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>Mounir</t>
+          <t>Rateel</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>Corm</t>
+          <t>Alshehri</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Emma Crabtree</t>
+          <t>Baldeep Singh</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Group Chief Commercial Officer</t>
+          <t>Founder</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/emma-crabtree-92080267/</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr"/>
-      <c r="E72" s="4" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/singhbaldeep/</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>sbaldeep@gmail.com</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>baldeep@revent.store</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>+971529334922</t>
+        </is>
+      </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>IQ-EQ</t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
+          <t>Revent</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>https://revent.store</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Baldeep</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>Crabtree</t>
+          <t>Singh</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>Herve Cuviliez</t>
+          <t>Rashid Siddiqi</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Co-Founder</t>
+          <t>Founding Partner</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hervecuviliez/</t>
-        </is>
-      </c>
-      <c r="D73" s="4" t="inlineStr"/>
-      <c r="E73" s="4" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/rashidsiddiqi/</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>rashid@gymnation.com</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>rashid.siddiqi@energiaksa.com</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>+971 50 451 8278</t>
+        </is>
+      </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Id4 ventures</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
+          <t>Ruya Partners</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>http://www.ruyapartners.com</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>Abu Dhabi, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>Herve</t>
+          <t>Rashid</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>Cuviliez</t>
+          <t>Siddiqi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Raida Daouk</t>
+          <t>Ahmad Alanani</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Founder &amp; Managing Partner</t>
+          <t>Co-Founder &amp; CEO</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/raidadaouk/</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr"/>
-      <c r="E74" s="4" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/ahmad-alanani-cfa-%F0%9F%8D%89-69a3582/</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>ahmad.alanani@sanctacapital.com</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>ahmad.alanani@rss.ae</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>+1 713-234-6454</t>
+        </is>
+      </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Amkan Ventures</t>
-        </is>
-      </c>
-      <c r="H74" s="3" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
+          <t>Sancta Capital Group</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>http://www.sanctacapital.com/</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>Raida</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>Daouk</t>
+          <t>Alanani</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Jérôme de Bontin</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="3" t="inlineStr"/>
-      <c r="D75" s="4" t="inlineStr"/>
-      <c r="E75" s="4" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
+          <t>Tamer Azer</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tamerazer/</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>tamer@falakstartups.com</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>azer@mqrspaces.com</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>+971 2 671 1127</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Shorooq Partners</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>https://www.shorooq.com</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Jérôme de</t>
+          <t>Tamer</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
-          <t>Bontin</t>
+          <t>Azer</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Aanchal Dua</t>
+          <t>Ishpreet Singh Gandhi</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Investor Relations</t>
+          <t>Founder &amp; Managing Partner</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/aanchal-dua-5b3197102/</t>
-        </is>
-      </c>
-      <c r="D76" s="4" t="inlineStr"/>
-      <c r="E76" s="4" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/ishpreet-singh-gandhi-539893b/</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>ishpreet.gandhi@gmail.com</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>ishpreet.gandhi@credable.in</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>+91 98730 03008</t>
+        </is>
+      </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>NAV Capital Limited</t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="inlineStr"/>
+          <t>Stride Ventures</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>https://strideventures.in/</t>
+        </is>
+      </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>New Delhi Area, India</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Aanchal</t>
+          <t>Ishpreet Singh</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
-          <t>Dua</t>
+          <t>Gandhi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>Sharif Eid</t>
+          <t>Ghida Harfouche</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Partner - Portfolio Manager</t>
+          <t>Partner</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sharif-eid-22056a19/</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr"/>
-      <c r="E77" s="4" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/ghidaharfouche/</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>ghida_harfouche@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>ghidaharfouche@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>+971 4 401 9568</t>
+        </is>
+      </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Amwal Capital Partners</t>
-        </is>
-      </c>
-      <c r="H77" s="3" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
+          <t>TVM Capital Healthcare</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>http://www.tvmcapitalhealthcare.com</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Ghida</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>Eid</t>
+          <t>Harfouche</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Sara Enan</t>
+          <t>Pascal Thomys</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Principal</t>
+          <t>Head of IR</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sara-enan-7516571a/</t>
-        </is>
-      </c>
-      <c r="D78" s="4" t="inlineStr"/>
-      <c r="E78" s="4" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/pascal-thomys-537804ab/</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>pascalthomys@hotmail.de</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>pthomys@targetglobal.vc</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>+49 30 609837750</t>
+        </is>
+      </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Oryx Fund</t>
-        </is>
-      </c>
-      <c r="H78" s="3" t="inlineStr"/>
+          <t>Target Global</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>https://www.targetglobal.vc</t>
+        </is>
+      </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Pascal</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
-          <t>Enan</t>
+          <t>Thomys</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>Ariel Ezrahi</t>
+          <t>Elie Fakhoury</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Director of Climate Strategy &amp; Initiatives, Head of DACH Region</t>
+          <t>Senior Managing Director - Financial Advisory</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ariel-ezrahi-bb796a20/</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr"/>
-      <c r="E79" s="4" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/eliefakhoury/</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>eliefakhoury@gmail.com</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>elie.fakhoury@teneo.com</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>+1 212-886-1600</t>
+        </is>
+      </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>NewVest</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="inlineStr"/>
+          <t>Teneo</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>https://www.teneo.com/</t>
+        </is>
+      </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Elie</t>
         </is>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
-          <t>Ezrahi</t>
+          <t>Fakhoury</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Ashish Fafadia</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr"/>
-      <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="4" t="inlineStr"/>
+          <t>Rashad Fares</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rashad-fares-464011277/</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>ceo@thevoucherapp.com</t>
+        </is>
+      </c>
       <c r="E80" s="4" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="3" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>+971543370077</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>The Voucher App</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thevoucherapp.com</t>
+        </is>
+      </c>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>Ashish</t>
+          <t>Rashad</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
-          <t>Fafadia</t>
+          <t>Fares</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Elie Fakhoury</t>
+          <t>Federico Bazzoni</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Senior Managing Director - Financial Advisory</t>
+          <t>CEO, Investment Banking</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/eliefakhoury/</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr"/>
-      <c r="E81" s="4" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/federico-bazzoni-1a51a94/</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>federico.bazzoni@btinternet.com</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>+44 20 3107 5000</t>
+        </is>
+      </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Teneo</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="inlineStr"/>
+          <t>Vantage Capital Markets</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>http://www.vcm.hk/</t>
+        </is>
+      </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Hong Kong SAR</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>Elie</t>
+          <t>Federico</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
-          <t>Fakhoury</t>
+          <t>Bazzoni</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Rashad Fares</t>
+          <t>Mounir Corm</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Deputy Chief Executive Officer - Founding Partner</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/rashad-fares-464011277/</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr"/>
-      <c r="E82" s="4" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/mounir-corm-4201b3b/</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>mounircorm@gmail.com</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>mounir.corm@mirova.com</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>+33 1 78 40 90 25</t>
+        </is>
+      </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>The Voucher App</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
+          <t>Vauban Infrastructure Partners</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>http://www.vauban-ip.com</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>Paris Area, France</t>
+        </is>
+      </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>Rashad</t>
+          <t>Mounir</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
-          <t>Fares</t>
+          <t>Corm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Walid Faza</t>
+          <t>Bilal Abou-Diab</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Partner &amp; Chief Operating Officer</t>
+          <t>Co-Founder &amp; CEO</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/walidfaza/</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr"/>
-      <c r="E83" s="4" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/bilal-abou-diab-cfa/</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>bilal.adiab@gmail.com</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>bilal@vaultwealth.com</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>+971 55 814 9134</t>
+        </is>
+      </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>MSA Novo</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
+          <t>Vault</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>https://www.vaultwealth.com</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>Walid</t>
+          <t>Bilal</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
-          <t>Faza</t>
+          <t>Abou-Diab</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Abderahmane Fodil</t>
+          <t>Konstantin Karchinov</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Partner</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/afodil/</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/konstantin-karchinov-cfa-a399422/</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>kkarchinov@yahoo.com</t>
+        </is>
+      </c>
       <c r="E84" s="4" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>idiem Partners</t>
-        </is>
-      </c>
-      <c r="H84" s="3" t="inlineStr"/>
+          <t>Veld Capital</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>www.veldcap.com</t>
+        </is>
+      </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>Région de Paris, France</t>
+          <t>London, England, United Kingdom</t>
         </is>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>Abderahmane</t>
+          <t>Konstantin</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
         <is>
-          <t>Fodil</t>
+          <t>Karchinov</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>Glenn Gore</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr"/>
-      <c r="C85" s="3" t="inlineStr"/>
-      <c r="D85" s="4" t="inlineStr"/>
-      <c r="E85" s="4" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
-      <c r="H85" s="3" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
+          <t>Sonia Gokhale</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>General Partner and Co-Founder</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sonia-seth-gokhale-b0906014/</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>soniagokhale@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E85" s="4" t="inlineStr">
+        <is>
+          <t>soniag@venturesouq.com</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>+971 56 222 3915</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>VentureSouq</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>http://www.venturesouq.com</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>Glenn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
-          <t>Gore</t>
+          <t>Gokhale</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Anshul Govila</t>
+          <t>Jonathan Alden</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Executive Director Strategy</t>
+          <t>SVP - Head of Investor Relations</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/dranshulgovila/</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr"/>
-      <c r="E86" s="4" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/jonathan-alden-cfa-57671538/</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>jonathana@vintage-ip.com</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>jta1992@mac.com</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>+972 9-954-1012</t>
+        </is>
+      </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Bait Al-Batterjee Medical Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="H86" s="3" t="inlineStr"/>
+          <t>Vintage Investment Partners</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>http://www.vintage-ip.com</t>
+        </is>
+      </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>Anshul</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
         <is>
-          <t>Govila</t>
+          <t>Alden</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>Omar Gull</t>
+          <t>Namit Chugh</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer and Founder</t>
+          <t>Principal</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/omargull/</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr"/>
-      <c r="E87" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/namitchugh/</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>namit.arien@gmail.com</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>nchugh1988@gmail.com</t>
+        </is>
+      </c>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>CLEDOR</t>
-        </is>
-      </c>
-      <c r="H87" s="3" t="inlineStr"/>
+          <t>W Health Ventures</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>http://www.whealthventures.com</t>
+        </is>
+      </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates · On-site</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Namit</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
         <is>
-          <t>Gull</t>
+          <t>Chugh</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Kadir Gungor</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr"/>
-      <c r="C88" s="3" t="inlineStr"/>
-      <c r="D88" s="4" t="inlineStr"/>
-      <c r="E88" s="4" t="inlineStr"/>
+          <t>Niklas Ponnert</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Managing Director &amp; Chief Strategy Officer</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/niklasponnert/</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>niklas@origoplc.com</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="inlineStr">
+        <is>
+          <t>p-n@aventura.group</t>
+        </is>
+      </c>
       <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="3" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>ewpartners</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>https://www.ewpartners.fund</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>Riyadh, Saudi Arabia</t>
+        </is>
+      </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>Kadir</t>
+          <t>Niklas</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
         <is>
-          <t>Gungor</t>
+          <t>Ponnert</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Hasan Haider</t>
+          <t>Abderahmane Fodil</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Founder and Managing Partner</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hasanhaider/</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr"/>
-      <c r="E89" s="4" t="inlineStr"/>
+          <t>https://www.linkedin.com/in/afodil/</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>abdu_fodil@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Plus VC (+VC)</t>
-        </is>
-      </c>
-      <c r="H89" s="3" t="inlineStr"/>
+          <t>idiem Partners</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>http://www.idi-em.com</t>
+        </is>
+      </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Région de Paris, France</t>
         </is>
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>Hasan</t>
+          <t>Abderahmane</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
         <is>
-          <t>Haider</t>
+          <t>Fodil</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Wang Hao</t>
+          <t>Yousef Gamal El-Din</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr"/>
@@ -3628,60 +5188,44 @@
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Yousef Gamal</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
         <is>
-          <t>Hao</t>
+          <t>El-Din</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Ghida Harfouche</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Partner</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/ghidaharfouche/</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr"/>
-      <c r="E91" s="4" t="inlineStr"/>
+          <t>Gerald Lawless</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr"/>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr"/>
+      <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>TVM Capital Healthcare</t>
-        </is>
-      </c>
+      <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="3" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>Ghida</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
         <is>
-          <t>Harfouche</t>
+          <t>Lawless</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Damir Illich</t>
+          <t>Muteb Al Shathri</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr"/>
@@ -3694,220 +5238,144 @@
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>Damir</t>
+          <t>Muteb Al</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
         <is>
-          <t>Illich</t>
+          <t>Shathri</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Jethwani</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/pankajsj/</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr"/>
-      <c r="E93" s="4" t="inlineStr"/>
+          <t>Sean Daykin</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr"/>
+      <c r="C93" s="3" t="inlineStr"/>
+      <c r="D93" s="3" t="inlineStr"/>
+      <c r="E93" s="3" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>2070 Health</t>
-        </is>
-      </c>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="3" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
         <is>
-          <t>Jethwani</t>
+          <t>Daykin</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Mark Kahn</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Managing Partner</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/mark-kahn-20490a/</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr"/>
-      <c r="E94" s="4" t="inlineStr"/>
+          <t>Asif Khan</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr"/>
+      <c r="C94" s="3" t="inlineStr"/>
+      <c r="D94" s="3" t="inlineStr"/>
+      <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Omnivore</t>
-        </is>
-      </c>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="3" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>Mumbai Area, India</t>
-        </is>
-      </c>
+      <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Asif</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Khan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Rajeev Kalambi</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>General Partner</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rajeevkalambi/</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr"/>
-      <c r="E95" s="4" t="inlineStr"/>
+          <t>Zain Shamim</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr"/>
+      <c r="C95" s="3" t="inlineStr"/>
+      <c r="D95" s="3" t="inlineStr"/>
+      <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Cactus Partners</t>
-        </is>
-      </c>
+      <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="3" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Bengaluru, Karnataka, India</t>
-        </is>
-      </c>
+      <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>Rajeev</t>
+          <t>Zain</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
         <is>
-          <t>Kalambi</t>
+          <t>Shamim</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Konstantin Karchinov</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Partner</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/konstantin-karchinov-cfa-a399422/</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr"/>
+          <t>Jean Morcos</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr"/>
+      <c r="C96" s="3" t="inlineStr"/>
+      <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Veld Capital</t>
-        </is>
-      </c>
+      <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="3" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>London, England, United Kingdom</t>
-        </is>
-      </c>
+      <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>Konstantin</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
         <is>
-          <t>Karchinov</t>
+          <t>Morcos</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Hisham Kassim</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Managing Partner</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/hisham-kassim/</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr"/>
-      <c r="E97" s="4" t="inlineStr"/>
+          <t>Jaspreet Randhawa</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr"/>
+      <c r="C97" s="3" t="inlineStr"/>
+      <c r="D97" s="3" t="inlineStr"/>
+      <c r="E97" s="3" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Kassim Legal</t>
-        </is>
-      </c>
+      <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="3" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>Washington, District of Columbia, United States</t>
-        </is>
-      </c>
+      <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr">
         <is>
-          <t>Hisham</t>
+          <t>Jaspreet</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
         <is>
-          <t>Kassim</t>
+          <t>Randhawa</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Eesha Khader</t>
+          <t>Scott B. Garfield</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr"/>
@@ -3920,19 +5388,19 @@
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>Eesha</t>
+          <t>Scott B.</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
         <is>
-          <t>Khader</t>
+          <t>Garfield</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Ameera Khalid</t>
+          <t>Hans-Jörg Baumann</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr"/>
@@ -3945,60 +5413,44 @@
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>Ameera</t>
+          <t>Hans-Jörg</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Baumann</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Mark Kleyner</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Co-Founder &amp; CEO</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/markkleyner/</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr"/>
-      <c r="E100" s="4" t="inlineStr"/>
+          <t>Christiaan de Lint</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr"/>
+      <c r="C100" s="3" t="inlineStr"/>
+      <c r="D100" s="3" t="inlineStr"/>
+      <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>Dream VC</t>
-        </is>
-      </c>
+      <c r="G100" s="2" t="inlineStr"/>
       <c r="H100" s="3" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
+      <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Christiaan de</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
         <is>
-          <t>Kleyner</t>
+          <t>Lint</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>H.E. Dr. Nabeel Koshak</t>
+          <t>Sara Nayef Al-Ateeqi</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr"/>
@@ -4011,97 +5463,69 @@
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>Dr. Nabeel</t>
+          <t>Sara Nayef</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
         <is>
-          <t>Koshak</t>
+          <t>Al-Ateeqi</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>Khaled Lababidi</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>Operating Partner</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/khaled-lababidi-5793414/</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr"/>
-      <c r="E102" s="4" t="inlineStr"/>
+          <t>Jaroslava Korpanec</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr"/>
+      <c r="C102" s="3" t="inlineStr"/>
+      <c r="D102" s="3" t="inlineStr"/>
+      <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>Arbor Ventures</t>
-        </is>
-      </c>
+      <c r="G102" s="2" t="inlineStr"/>
       <c r="H102" s="3" t="inlineStr"/>
-      <c r="I102" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>Khaled</t>
+          <t>Jaroslava</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
         <is>
-          <t>Lababidi</t>
+          <t>Korpanec</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>Taimoor Labib</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>Founding Partner at Affirma Capital, Head of MENA &amp; Chairman of Africa</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/taimoor-labib-9443b/</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr"/>
-      <c r="E103" s="4" t="inlineStr"/>
+          <t>Dr Karim El Solh</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr"/>
+      <c r="C103" s="3" t="inlineStr"/>
+      <c r="D103" s="3" t="inlineStr"/>
+      <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>Affirma Capital</t>
-        </is>
-      </c>
+      <c r="G103" s="2" t="inlineStr"/>
       <c r="H103" s="3" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr">
         <is>
-          <t>Taimoor</t>
+          <t>Karim El</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
         <is>
-          <t>Labib</t>
+          <t>Solh</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>Adam Ladjadj</t>
+          <t>Walid Mansour</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr"/>
@@ -4114,60 +5538,44 @@
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Walid</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr">
         <is>
-          <t>Ladjadj</t>
+          <t>Mansour</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>Jeffrey Lau</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Partner; CEO/CIO, Private Credit and Special Situations</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jeffreyclau/</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr"/>
+          <t>Yaser Moustafa</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr"/>
+      <c r="C105" s="3" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Primavera Capital Group 春华资本集团</t>
-        </is>
-      </c>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="3" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
+      <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Yaser</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
         <is>
-          <t>Lau</t>
+          <t>Moustafa</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>Michael Lints</t>
+          <t>Michael Burt</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr"/>
@@ -4185,96 +5593,64 @@
       </c>
       <c r="K106" s="2" t="inlineStr">
         <is>
-          <t>Lints</t>
+          <t>Burt</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>Serge Lépine</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>Founder and Managing Partner</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/serge-lepine/</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr"/>
-      <c r="E107" s="4" t="inlineStr"/>
+          <t>Chris Macbeth</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr"/>
+      <c r="C107" s="3" t="inlineStr"/>
+      <c r="D107" s="3" t="inlineStr"/>
+      <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Cabot Capital Partners</t>
-        </is>
-      </c>
+      <c r="G107" s="2" t="inlineStr"/>
       <c r="H107" s="3" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
+      <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr">
         <is>
-          <t>Serge</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
         <is>
-          <t>Lépine</t>
+          <t>Macbeth</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Aly Madhavji</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Managing Partner</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alymadhavji/</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr"/>
-      <c r="E108" s="4" t="inlineStr"/>
+          <t>Vanessa Abernethy</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr"/>
+      <c r="C108" s="3" t="inlineStr"/>
+      <c r="D108" s="3" t="inlineStr"/>
+      <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Blockchain Founders Fund</t>
-        </is>
-      </c>
+      <c r="G108" s="2" t="inlineStr"/>
       <c r="H108" s="3" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
+      <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr">
         <is>
-          <t>Aly</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
         <is>
-          <t>Madhavji</t>
+          <t>Abernethy</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Atif Mahmood</t>
+          <t>Zainab Al Sharif</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr"/>
@@ -4287,60 +5663,44 @@
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr">
         <is>
-          <t>Atif</t>
+          <t>Zainab Al</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
         <is>
-          <t>Mahmood</t>
+          <t>Sharif</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>Ziad Makkawi</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Founder &amp; CEO</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/ziadmakkawi/</t>
-        </is>
-      </c>
-      <c r="D110" s="4" t="inlineStr"/>
-      <c r="E110" s="4" t="inlineStr"/>
+          <t>Hala Al Taher</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr"/>
+      <c r="C110" s="3" t="inlineStr"/>
+      <c r="D110" s="3" t="inlineStr"/>
+      <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>EQUIAM</t>
-        </is>
-      </c>
+      <c r="G110" s="2" t="inlineStr"/>
       <c r="H110" s="3" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>San Francisco, California - USA</t>
-        </is>
-      </c>
+      <c r="I110" s="2" t="inlineStr"/>
       <c r="J110" s="2" t="inlineStr">
         <is>
-          <t>Ziad</t>
+          <t>Hala Al</t>
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
         <is>
-          <t>Makkawi</t>
+          <t>Taher</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>Walter Manara</t>
+          <t>Omar Al Yawer</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr"/>
@@ -4353,60 +5713,44 @@
       <c r="I111" s="2" t="inlineStr"/>
       <c r="J111" s="2" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Omar Al</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
         <is>
-          <t>Manara</t>
+          <t>Yawer</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>Khuram Maqsood</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Managing Director</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/khuram-maqsood-3011a6/</t>
-        </is>
-      </c>
-      <c r="D112" s="4" t="inlineStr"/>
-      <c r="E112" s="4" t="inlineStr"/>
+          <t>Mohamed Aladdin</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr"/>
+      <c r="C112" s="3" t="inlineStr"/>
+      <c r="D112" s="3" t="inlineStr"/>
+      <c r="E112" s="3" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>Houlihan Lokey</t>
-        </is>
-      </c>
+      <c r="G112" s="2" t="inlineStr"/>
       <c r="H112" s="3" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I112" s="2" t="inlineStr"/>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>Khuram</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
         <is>
-          <t>Maqsood</t>
+          <t>Aladdin</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>Anamaria Meshkurti</t>
+          <t>Nader AlBastaki</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr"/>
@@ -4419,101 +5763,69 @@
       <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Nader Al</t>
         </is>
       </c>
       <c r="K113" s="2" t="inlineStr">
         <is>
-          <t>Meshkurti</t>
+          <t>Bastaki</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Nicolas Michelon</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Founder &amp; CEO</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/nicolas-michelon-6903a15b/</t>
-        </is>
-      </c>
-      <c r="D114" s="4" t="inlineStr"/>
-      <c r="E114" s="4" t="inlineStr"/>
+          <t>Racha Alkhawaja</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr"/>
+      <c r="C114" s="3" t="inlineStr"/>
+      <c r="D114" s="3" t="inlineStr"/>
+      <c r="E114" s="3" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>Asia Intelligence Advisory</t>
-        </is>
-      </c>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="3" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>Paris, Île-de-France, France</t>
-        </is>
-      </c>
+      <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Racha</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
         <is>
-          <t>Michelon</t>
+          <t>Alkhawaja</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>Abrar Mir</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Managing Partner</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/abrar-mir/</t>
-        </is>
-      </c>
-      <c r="D115" s="4" t="inlineStr"/>
-      <c r="E115" s="4" t="inlineStr"/>
+          <t>Hossam Allam</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr"/>
+      <c r="C115" s="3" t="inlineStr"/>
+      <c r="D115" s="3" t="inlineStr"/>
+      <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>Quadria Capital</t>
-        </is>
-      </c>
+      <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="3" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
+      <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>Abrar</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
         <is>
-          <t>Mir</t>
+          <t>Allam</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>Kishlaya Misra</t>
+          <t>Ambar Amleh</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr"/>
@@ -4526,60 +5838,44 @@
       <c r="I116" s="2" t="inlineStr"/>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>Kishlaya</t>
+          <t>Ambar</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
         <is>
-          <t>Misra</t>
+          <t>Amleh</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>Alex Murray</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>VP, Head of Real Assets, Research Insights</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alexmurrayucl/</t>
-        </is>
-      </c>
-      <c r="D117" s="4" t="inlineStr"/>
-      <c r="E117" s="4" t="inlineStr"/>
+          <t>Rene Canezin</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr"/>
+      <c r="C117" s="3" t="inlineStr"/>
+      <c r="D117" s="3" t="inlineStr"/>
+      <c r="E117" s="3" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Preqin</t>
-        </is>
-      </c>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="3" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>London, England, United Kingdom</t>
-        </is>
-      </c>
+      <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Rene</t>
         </is>
       </c>
       <c r="K117" s="2" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Canezin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Binoj Nair</t>
+          <t>Cliff Chau</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr"/>
@@ -4592,101 +5888,69 @@
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>Binoj</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
         <is>
-          <t>Nair</t>
+          <t>Chau</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>Manoj Narender Madnani</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>Co-Founder, Chairman</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/manoj-narender-madnani/</t>
-        </is>
-      </c>
-      <c r="D119" s="4" t="inlineStr"/>
-      <c r="E119" s="4" t="inlineStr"/>
+          <t>Jérôme de Bontin</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr"/>
+      <c r="C119" s="3" t="inlineStr"/>
+      <c r="D119" s="3" t="inlineStr"/>
+      <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Beacon Media</t>
-        </is>
-      </c>
+      <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="3" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Cayman Islands</t>
-        </is>
-      </c>
+      <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>Manoj Narender</t>
+          <t>Jérôme de</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
         <is>
-          <t>Madnani</t>
+          <t>Bontin</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>Sheikh Muhammad Noman</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Founder &amp; CEO</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/sheikh-muhammad-noman-follow-only-a6819a47/</t>
-        </is>
-      </c>
-      <c r="D120" s="4" t="inlineStr"/>
-      <c r="E120" s="4" t="inlineStr"/>
+          <t>Ashish Fafadia</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr"/>
+      <c r="C120" s="3" t="inlineStr"/>
+      <c r="D120" s="3" t="inlineStr"/>
+      <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Pegasus Capital Investments</t>
-        </is>
-      </c>
+      <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="3" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>On-site</t>
-        </is>
-      </c>
+      <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>Sheikh Muhammad</t>
+          <t>Ashish</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
         <is>
-          <t>Noman</t>
+          <t>Fafadia</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>Aashish Pandav</t>
+          <t>Glenn Gore</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr"/>
@@ -4699,19 +5963,19 @@
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>Aashish</t>
+          <t>Glenn</t>
         </is>
       </c>
       <c r="K121" s="2" t="inlineStr">
         <is>
-          <t>Pandav</t>
+          <t>Gore</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>Vishal Patel</t>
+          <t>Kadir Gungor</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr"/>
@@ -4724,101 +5988,69 @@
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>Vishal</t>
+          <t>Kadir</t>
         </is>
       </c>
       <c r="K122" s="2" t="inlineStr">
         <is>
-          <t>Patel</t>
+          <t>Gungor</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>Venkatesh Peddi</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Managing Director &amp; Partner</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/venkateshpeddi/</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr"/>
-      <c r="E123" s="4" t="inlineStr"/>
+          <t>Wang Hao</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr"/>
+      <c r="C123" s="3" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr"/>
+      <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr">
-        <is>
-          <t>Chiratae Ventures</t>
-        </is>
-      </c>
+      <c r="G123" s="2" t="inlineStr"/>
       <c r="H123" s="3" t="inlineStr"/>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
+      <c r="I123" s="2" t="inlineStr"/>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>Venkatesh</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="K123" s="2" t="inlineStr">
         <is>
-          <t>Peddi</t>
+          <t>Hao</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Niklas Ponnert</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Managing Director &amp; Chief Strategy Officer</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/niklasponnert/</t>
-        </is>
-      </c>
-      <c r="D124" s="4" t="inlineStr"/>
-      <c r="E124" s="4" t="inlineStr"/>
+          <t>Damir Illich</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr"/>
+      <c r="C124" s="3" t="inlineStr"/>
+      <c r="D124" s="3" t="inlineStr"/>
+      <c r="E124" s="3" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr">
-        <is>
-          <t>ewpartners</t>
-        </is>
-      </c>
+      <c r="G124" s="2" t="inlineStr"/>
       <c r="H124" s="3" t="inlineStr"/>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Riyadh, Saudi Arabia</t>
-        </is>
-      </c>
+      <c r="I124" s="2" t="inlineStr"/>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>Niklas</t>
+          <t>Damir</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
         <is>
-          <t>Ponnert</t>
+          <t>Illich</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>Ennis Rimawi</t>
+          <t>Eesha Khader</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr"/>
@@ -4831,101 +6063,69 @@
       <c r="I125" s="2" t="inlineStr"/>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>Ennis</t>
+          <t>Eesha</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
         <is>
-          <t>Rimawi</t>
+          <t>Khader</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Jenni Risku</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Impact Partner</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jennirisku/</t>
-        </is>
-      </c>
-      <c r="D126" s="4" t="inlineStr"/>
-      <c r="E126" s="4" t="inlineStr"/>
+          <t>Ameera Khalid</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr"/>
+      <c r="C126" s="3" t="inlineStr"/>
+      <c r="D126" s="3" t="inlineStr"/>
+      <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr">
-        <is>
-          <t>Click Ventures</t>
-        </is>
-      </c>
+      <c r="G126" s="2" t="inlineStr"/>
       <c r="H126" s="3" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
+      <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>Jenni</t>
+          <t>Ameera</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
         <is>
-          <t>Risku</t>
+          <t>Khalid</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>Alexandre Santos</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>General Partner &amp; Founder</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/antscv/</t>
-        </is>
-      </c>
-      <c r="D127" s="4" t="inlineStr"/>
-      <c r="E127" s="4" t="inlineStr"/>
+          <t>H.E. Dr. Nabeel Koshak</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr"/>
+      <c r="C127" s="3" t="inlineStr"/>
+      <c r="D127" s="3" t="inlineStr"/>
+      <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>Chamaeleon</t>
-        </is>
-      </c>
+      <c r="G127" s="2" t="inlineStr"/>
       <c r="H127" s="3" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>San Francisco Bay Area</t>
-        </is>
-      </c>
+      <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Dr. Nabeel</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Koshak</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>Dr Helmut Scheuhsler</t>
+          <t>Adam Ladjadj</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr"/>
@@ -4938,142 +6138,94 @@
       <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>Helmut</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
         <is>
-          <t>Scheuhsler</t>
+          <t>Ladjadj</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>Pranav Sharma</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Founder</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/pranav-sharma-7a05b13/</t>
-        </is>
-      </c>
-      <c r="D129" s="4" t="inlineStr"/>
-      <c r="E129" s="4" t="inlineStr"/>
+          <t>Michael Lints</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr"/>
+      <c r="C129" s="3" t="inlineStr"/>
+      <c r="D129" s="3" t="inlineStr"/>
+      <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr">
-        <is>
-          <t>Agna</t>
-        </is>
-      </c>
+      <c r="G129" s="2" t="inlineStr"/>
       <c r="H129" s="3" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr">
-        <is>
-          <t>UAE | Cayman Islands | India</t>
-        </is>
-      </c>
+      <c r="I129" s="2" t="inlineStr"/>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>Pranav</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
         <is>
-          <t>Sharma</t>
+          <t>Lints</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Rashid Siddiqi</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Founding Partner</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rashidsiddiqi/</t>
-        </is>
-      </c>
-      <c r="D130" s="4" t="inlineStr"/>
-      <c r="E130" s="4" t="inlineStr"/>
+          <t>Atif Mahmood</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr"/>
+      <c r="C130" s="3" t="inlineStr"/>
+      <c r="D130" s="3" t="inlineStr"/>
+      <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>Ruya Partners</t>
-        </is>
-      </c>
+      <c r="G130" s="2" t="inlineStr"/>
       <c r="H130" s="3" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>Abu Dhabi, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>Rashid</t>
+          <t>Atif</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
         <is>
-          <t>Siddiqi</t>
+          <t>Mahmood</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>Baldeep Singh</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Founder</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/singhbaldeep/</t>
-        </is>
-      </c>
-      <c r="D131" s="4" t="inlineStr"/>
-      <c r="E131" s="4" t="inlineStr"/>
+          <t>Walter Manara</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr"/>
+      <c r="C131" s="3" t="inlineStr"/>
+      <c r="D131" s="3" t="inlineStr"/>
+      <c r="E131" s="3" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr">
-        <is>
-          <t>Revent</t>
-        </is>
-      </c>
+      <c r="G131" s="2" t="inlineStr"/>
       <c r="H131" s="3" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I131" s="2" t="inlineStr"/>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>Baldeep</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
         <is>
-          <t>Singh</t>
+          <t>Manara</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>Bhupinder Singh</t>
+          <t>Anamaria Meshkurti</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr"/>
@@ -5086,60 +6238,44 @@
       <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>Bhupinder</t>
+          <t>Anamaria</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
         <is>
-          <t>Singh</t>
+          <t>Meshkurti</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>Ishpreet Singh Gandhi</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Founder &amp; Managing Partner</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/ishpreet-singh-gandhi-539893b/</t>
-        </is>
-      </c>
-      <c r="D133" s="4" t="inlineStr"/>
-      <c r="E133" s="4" t="inlineStr"/>
+          <t>Kishlaya Misra</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr"/>
+      <c r="C133" s="3" t="inlineStr"/>
+      <c r="D133" s="3" t="inlineStr"/>
+      <c r="E133" s="3" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr">
-        <is>
-          <t>Stride Ventures</t>
-        </is>
-      </c>
+      <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="3" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr">
-        <is>
-          <t>New Delhi Area, India</t>
-        </is>
-      </c>
+      <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>Ishpreet Singh</t>
+          <t>Kishlaya</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
         <is>
-          <t>Gandhi</t>
+          <t>Misra</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>Felix Stratmann</t>
+          <t>Binoj Nair</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr"/>
@@ -5152,56 +6288,44 @@
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr">
         <is>
-          <t>Felix</t>
+          <t>Binoj</t>
         </is>
       </c>
       <c r="K134" s="2" t="inlineStr">
         <is>
-          <t>Stratmann</t>
+          <t>Nair</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>Noor Sweid</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Founder and Managing Partner</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/noor-sweid-4b5233/</t>
-        </is>
-      </c>
-      <c r="D135" s="4" t="inlineStr"/>
-      <c r="E135" s="4" t="inlineStr"/>
+          <t>Aashish Pandav</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr"/>
+      <c r="C135" s="3" t="inlineStr"/>
+      <c r="D135" s="3" t="inlineStr"/>
+      <c r="E135" s="3" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>Global Ventures</t>
-        </is>
-      </c>
+      <c r="G135" s="2" t="inlineStr"/>
       <c r="H135" s="3" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>Noor</t>
+          <t>Aashish</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
         <is>
-          <t>Sweid</t>
+          <t>Pandav</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>Chetan Tailor</t>
+          <t>Vishal Patel</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr"/>
@@ -5214,209 +6338,137 @@
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr">
         <is>
-          <t>Chetan</t>
+          <t>Vishal</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
         <is>
-          <t>Tailor</t>
+          <t>Patel</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>Khaled Talhouni</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>Managing Partner</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/khaledtalhouni/</t>
-        </is>
-      </c>
-      <c r="D137" s="4" t="inlineStr"/>
-      <c r="E137" s="4" t="inlineStr"/>
+          <t>Ennis Rimawi</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr"/>
+      <c r="C137" s="3" t="inlineStr"/>
+      <c r="D137" s="3" t="inlineStr"/>
+      <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>Nuwa Capital</t>
-        </is>
-      </c>
+      <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="3" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>Dubai, United Arab Emirates</t>
-        </is>
-      </c>
+      <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr">
         <is>
-          <t>Khaled</t>
+          <t>Ennis</t>
         </is>
       </c>
       <c r="K137" s="2" t="inlineStr">
         <is>
-          <t>Talhouni</t>
+          <t>Rimawi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>Paula Tavangar</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Chief Investment Officer</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/paulatavangar/</t>
-        </is>
-      </c>
-      <c r="D138" s="4" t="inlineStr"/>
-      <c r="E138" s="4" t="inlineStr"/>
+          <t>Dr Helmut Scheuhsler</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr"/>
+      <c r="C138" s="3" t="inlineStr"/>
+      <c r="D138" s="3" t="inlineStr"/>
+      <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr">
-        <is>
-          <t>Injaz Capital</t>
-        </is>
-      </c>
+      <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="3" t="inlineStr"/>
       <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Helmut</t>
         </is>
       </c>
       <c r="K138" s="2" t="inlineStr">
         <is>
-          <t>Tavangar</t>
+          <t>Scheuhsler</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>Pascal Thomys</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Head of IR</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/pascal-thomys-537804ab/</t>
-        </is>
-      </c>
-      <c r="D139" s="4" t="inlineStr"/>
-      <c r="E139" s="4" t="inlineStr"/>
+          <t>Bhupinder Singh</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr"/>
+      <c r="C139" s="3" t="inlineStr"/>
+      <c r="D139" s="3" t="inlineStr"/>
+      <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>Target Global</t>
-        </is>
-      </c>
+      <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="3" t="inlineStr"/>
-      <c r="I139" s="2" t="inlineStr">
-        <is>
-          <t>London, United Kingdom</t>
-        </is>
-      </c>
+      <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Pascal</t>
+          <t>Bhupinder</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
         <is>
-          <t>Thomys</t>
+          <t>Singh</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Anna Tutova</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/anna-tutova/</t>
-        </is>
-      </c>
-      <c r="D140" s="4" t="inlineStr"/>
-      <c r="E140" s="4" t="inlineStr"/>
+          <t>Felix Stratmann</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr"/>
+      <c r="C140" s="3" t="inlineStr"/>
+      <c r="D140" s="3" t="inlineStr"/>
+      <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr">
-        <is>
-          <t>Coinstelegram</t>
-        </is>
-      </c>
+      <c r="G140" s="2" t="inlineStr"/>
       <c r="H140" s="3" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr"/>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Felix</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
         <is>
-          <t>Tutova</t>
+          <t>Stratmann</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Thomas Williams</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>General Partner</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/thomas-williams-755a8114/</t>
-        </is>
-      </c>
-      <c r="D141" s="4" t="inlineStr"/>
-      <c r="E141" s="4" t="inlineStr"/>
+          <t>Chetan Tailor</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr"/>
+      <c r="C141" s="3" t="inlineStr"/>
+      <c r="D141" s="3" t="inlineStr"/>
+      <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr">
-        <is>
-          <t>Elder Gull</t>
-        </is>
-      </c>
+      <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="3" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
+      <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Chetan</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Tailor</t>
         </is>
       </c>
     </row>
@@ -5538,13 +6590,13 @@
     <hyperlink ref="E11" r:id="rId17"/>
     <hyperlink ref="H11" r:id="rId18"/>
     <hyperlink ref="C12" r:id="rId19"/>
-    <hyperlink ref="D12"/>
-    <hyperlink ref="E12"/>
-    <hyperlink ref="H12"/>
-    <hyperlink ref="C13" r:id="rId20"/>
-    <hyperlink ref="D13"/>
-    <hyperlink ref="E13"/>
-    <hyperlink ref="H13"/>
+    <hyperlink ref="D12" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="H12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="E13" r:id="rId25"/>
+    <hyperlink ref="H13" r:id="rId26"/>
     <hyperlink ref="C14"/>
     <hyperlink ref="D14"/>
     <hyperlink ref="E14"/>
@@ -5557,31 +6609,31 @@
     <hyperlink ref="D16"/>
     <hyperlink ref="E16"/>
     <hyperlink ref="H16"/>
-    <hyperlink ref="C17" r:id="rId21"/>
-    <hyperlink ref="D17"/>
-    <hyperlink ref="E17"/>
-    <hyperlink ref="H17"/>
-    <hyperlink ref="C18" r:id="rId22"/>
-    <hyperlink ref="D18"/>
-    <hyperlink ref="E18"/>
-    <hyperlink ref="H18"/>
-    <hyperlink ref="C19" r:id="rId23"/>
-    <hyperlink ref="D19"/>
-    <hyperlink ref="E19"/>
-    <hyperlink ref="H19"/>
-    <hyperlink ref="C20" r:id="rId24"/>
-    <hyperlink ref="D20"/>
-    <hyperlink ref="E20"/>
+    <hyperlink ref="C17" r:id="rId27"/>
+    <hyperlink ref="D17" r:id="rId28"/>
+    <hyperlink ref="E17" r:id="rId29"/>
+    <hyperlink ref="H17" r:id="rId30"/>
+    <hyperlink ref="C18" r:id="rId31"/>
+    <hyperlink ref="D18" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="H18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="E19" r:id="rId37"/>
+    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="C20" r:id="rId39"/>
+    <hyperlink ref="D20" r:id="rId40"/>
+    <hyperlink ref="E20" r:id="rId41"/>
     <hyperlink ref="H20"/>
-    <hyperlink ref="C21" r:id="rId25"/>
-    <hyperlink ref="D21"/>
-    <hyperlink ref="E21"/>
-    <hyperlink ref="H21"/>
+    <hyperlink ref="C21" r:id="rId42"/>
+    <hyperlink ref="D21" r:id="rId43"/>
+    <hyperlink ref="E21" r:id="rId44"/>
+    <hyperlink ref="H21" r:id="rId45"/>
     <hyperlink ref="C22"/>
     <hyperlink ref="D22"/>
     <hyperlink ref="E22"/>
     <hyperlink ref="H22"/>
-    <hyperlink ref="C23" r:id="rId26"/>
+    <hyperlink ref="C23" r:id="rId46"/>
     <hyperlink ref="D23"/>
     <hyperlink ref="E23"/>
     <hyperlink ref="H23"/>
@@ -5593,8 +6645,8 @@
     <hyperlink ref="D25"/>
     <hyperlink ref="E25"/>
     <hyperlink ref="H25"/>
-    <hyperlink ref="C26" r:id="rId27"/>
-    <hyperlink ref="D26"/>
+    <hyperlink ref="C26" r:id="rId47"/>
+    <hyperlink ref="D26" r:id="rId48"/>
     <hyperlink ref="E26"/>
     <hyperlink ref="H26"/>
     <hyperlink ref="C27"/>
@@ -5605,14 +6657,14 @@
     <hyperlink ref="D28"/>
     <hyperlink ref="E28"/>
     <hyperlink ref="H28"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="D29"/>
+    <hyperlink ref="C29" r:id="rId49"/>
+    <hyperlink ref="D29" r:id="rId50"/>
     <hyperlink ref="E29"/>
-    <hyperlink ref="H29"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="D30"/>
-    <hyperlink ref="E30"/>
-    <hyperlink ref="H30"/>
+    <hyperlink ref="H29" r:id="rId51"/>
+    <hyperlink ref="C30" r:id="rId52"/>
+    <hyperlink ref="D30" r:id="rId53"/>
+    <hyperlink ref="E30" r:id="rId54"/>
+    <hyperlink ref="H30" r:id="rId55"/>
     <hyperlink ref="C31"/>
     <hyperlink ref="D31"/>
     <hyperlink ref="E31"/>
@@ -5629,23 +6681,23 @@
     <hyperlink ref="D34"/>
     <hyperlink ref="E34"/>
     <hyperlink ref="H34"/>
-    <hyperlink ref="C35" r:id="rId30"/>
-    <hyperlink ref="D35"/>
+    <hyperlink ref="C35" r:id="rId56"/>
+    <hyperlink ref="D35" r:id="rId57"/>
     <hyperlink ref="E35"/>
-    <hyperlink ref="H35"/>
-    <hyperlink ref="C36" r:id="rId31"/>
-    <hyperlink ref="D36"/>
-    <hyperlink ref="E36"/>
-    <hyperlink ref="H36"/>
+    <hyperlink ref="H35" r:id="rId58"/>
+    <hyperlink ref="C36" r:id="rId59"/>
+    <hyperlink ref="D36" r:id="rId60"/>
+    <hyperlink ref="E36" r:id="rId61"/>
+    <hyperlink ref="H36" r:id="rId62"/>
     <hyperlink ref="C37"/>
     <hyperlink ref="D37"/>
     <hyperlink ref="E37"/>
     <hyperlink ref="H37"/>
-    <hyperlink ref="C38" r:id="rId32"/>
-    <hyperlink ref="D38"/>
-    <hyperlink ref="E38"/>
-    <hyperlink ref="H38"/>
-    <hyperlink ref="C39" r:id="rId33"/>
+    <hyperlink ref="C38" r:id="rId63"/>
+    <hyperlink ref="D38" r:id="rId64"/>
+    <hyperlink ref="E38" r:id="rId65"/>
+    <hyperlink ref="H38" r:id="rId66"/>
+    <hyperlink ref="C39" r:id="rId67"/>
     <hyperlink ref="D39"/>
     <hyperlink ref="E39"/>
     <hyperlink ref="H39"/>
@@ -5657,14 +6709,14 @@
     <hyperlink ref="D41"/>
     <hyperlink ref="E41"/>
     <hyperlink ref="H41"/>
-    <hyperlink ref="C42" r:id="rId34"/>
-    <hyperlink ref="D42"/>
-    <hyperlink ref="E42"/>
-    <hyperlink ref="H42"/>
-    <hyperlink ref="C43" r:id="rId35"/>
-    <hyperlink ref="D43"/>
-    <hyperlink ref="E43"/>
-    <hyperlink ref="H43"/>
+    <hyperlink ref="C42" r:id="rId68"/>
+    <hyperlink ref="D42" r:id="rId69"/>
+    <hyperlink ref="E42" r:id="rId70"/>
+    <hyperlink ref="H42" r:id="rId71"/>
+    <hyperlink ref="C43" r:id="rId72"/>
+    <hyperlink ref="D43" r:id="rId73"/>
+    <hyperlink ref="E43" r:id="rId74"/>
+    <hyperlink ref="H43" r:id="rId75"/>
     <hyperlink ref="C44"/>
     <hyperlink ref="D44"/>
     <hyperlink ref="E44"/>
@@ -5681,19 +6733,19 @@
     <hyperlink ref="D47"/>
     <hyperlink ref="E47"/>
     <hyperlink ref="H47"/>
-    <hyperlink ref="C48" r:id="rId36"/>
-    <hyperlink ref="D48"/>
-    <hyperlink ref="E48"/>
-    <hyperlink ref="H48"/>
+    <hyperlink ref="C48" r:id="rId76"/>
+    <hyperlink ref="D48" r:id="rId77"/>
+    <hyperlink ref="E48" r:id="rId78"/>
+    <hyperlink ref="H48" r:id="rId79"/>
     <hyperlink ref="C49"/>
     <hyperlink ref="D49"/>
     <hyperlink ref="E49"/>
     <hyperlink ref="H49"/>
-    <hyperlink ref="C50" r:id="rId37"/>
-    <hyperlink ref="D50"/>
-    <hyperlink ref="E50"/>
-    <hyperlink ref="H50"/>
-    <hyperlink ref="C51" r:id="rId38"/>
+    <hyperlink ref="C50" r:id="rId80"/>
+    <hyperlink ref="D50" r:id="rId81"/>
+    <hyperlink ref="E50" r:id="rId82"/>
+    <hyperlink ref="H50" r:id="rId83"/>
+    <hyperlink ref="C51" r:id="rId84"/>
     <hyperlink ref="D51"/>
     <hyperlink ref="E51"/>
     <hyperlink ref="H51"/>
@@ -5705,57 +6757,57 @@
     <hyperlink ref="D53"/>
     <hyperlink ref="E53"/>
     <hyperlink ref="H53"/>
-    <hyperlink ref="C54" r:id="rId39"/>
-    <hyperlink ref="D54"/>
-    <hyperlink ref="E54"/>
-    <hyperlink ref="H54"/>
-    <hyperlink ref="C55" r:id="rId40"/>
-    <hyperlink ref="D55"/>
-    <hyperlink ref="E55"/>
-    <hyperlink ref="H55"/>
-    <hyperlink ref="C56" r:id="rId41"/>
-    <hyperlink ref="D56"/>
-    <hyperlink ref="E56"/>
-    <hyperlink ref="H56"/>
-    <hyperlink ref="C57" r:id="rId42"/>
-    <hyperlink ref="D57"/>
-    <hyperlink ref="E57"/>
-    <hyperlink ref="H57"/>
-    <hyperlink ref="C58" r:id="rId43"/>
-    <hyperlink ref="D58"/>
-    <hyperlink ref="E58"/>
-    <hyperlink ref="H58"/>
+    <hyperlink ref="C54" r:id="rId85"/>
+    <hyperlink ref="D54" r:id="rId86"/>
+    <hyperlink ref="E54" r:id="rId87"/>
+    <hyperlink ref="H54" r:id="rId88"/>
+    <hyperlink ref="C55" r:id="rId89"/>
+    <hyperlink ref="D55" r:id="rId90"/>
+    <hyperlink ref="E55" r:id="rId91"/>
+    <hyperlink ref="H55" r:id="rId92"/>
+    <hyperlink ref="C56" r:id="rId93"/>
+    <hyperlink ref="D56" r:id="rId94"/>
+    <hyperlink ref="E56" r:id="rId95"/>
+    <hyperlink ref="H56" r:id="rId96"/>
+    <hyperlink ref="C57" r:id="rId97"/>
+    <hyperlink ref="D57" r:id="rId98"/>
+    <hyperlink ref="E57" r:id="rId99"/>
+    <hyperlink ref="H57" r:id="rId100"/>
+    <hyperlink ref="C58" r:id="rId101"/>
+    <hyperlink ref="D58" r:id="rId102"/>
+    <hyperlink ref="E58" r:id="rId103"/>
+    <hyperlink ref="H58" r:id="rId104"/>
     <hyperlink ref="C59"/>
     <hyperlink ref="D59"/>
     <hyperlink ref="E59"/>
     <hyperlink ref="H59"/>
-    <hyperlink ref="C60" r:id="rId44"/>
-    <hyperlink ref="D60"/>
-    <hyperlink ref="E60"/>
-    <hyperlink ref="H60"/>
-    <hyperlink ref="C61" r:id="rId45"/>
-    <hyperlink ref="D61"/>
-    <hyperlink ref="E61"/>
-    <hyperlink ref="H61"/>
-    <hyperlink ref="C62" r:id="rId46"/>
-    <hyperlink ref="D62"/>
-    <hyperlink ref="E62"/>
-    <hyperlink ref="H62"/>
-    <hyperlink ref="C63" r:id="rId47"/>
-    <hyperlink ref="D63"/>
+    <hyperlink ref="C60" r:id="rId105"/>
+    <hyperlink ref="D60" r:id="rId106"/>
+    <hyperlink ref="E60" r:id="rId107"/>
+    <hyperlink ref="H60" r:id="rId108"/>
+    <hyperlink ref="C61" r:id="rId109"/>
+    <hyperlink ref="D61" r:id="rId110"/>
+    <hyperlink ref="E61" r:id="rId111"/>
+    <hyperlink ref="H61" r:id="rId112"/>
+    <hyperlink ref="C62" r:id="rId113"/>
+    <hyperlink ref="D62" r:id="rId114"/>
+    <hyperlink ref="E62" r:id="rId115"/>
+    <hyperlink ref="H62" r:id="rId116"/>
+    <hyperlink ref="C63" r:id="rId117"/>
+    <hyperlink ref="D63" r:id="rId118"/>
     <hyperlink ref="E63"/>
-    <hyperlink ref="H63"/>
-    <hyperlink ref="C64" r:id="rId48"/>
-    <hyperlink ref="D64"/>
+    <hyperlink ref="H63" r:id="rId119"/>
+    <hyperlink ref="C64" r:id="rId120"/>
+    <hyperlink ref="D64" r:id="rId121"/>
     <hyperlink ref="E64"/>
     <hyperlink ref="H64"/>
-    <hyperlink ref="C65" r:id="rId49"/>
-    <hyperlink ref="D65"/>
-    <hyperlink ref="E65"/>
+    <hyperlink ref="C65" r:id="rId122"/>
+    <hyperlink ref="D65" r:id="rId123"/>
+    <hyperlink ref="E65" r:id="rId124"/>
     <hyperlink ref="H65"/>
-    <hyperlink ref="C66" r:id="rId50"/>
-    <hyperlink ref="D66"/>
-    <hyperlink ref="E66"/>
+    <hyperlink ref="C66" r:id="rId125"/>
+    <hyperlink ref="D66" r:id="rId126"/>
+    <hyperlink ref="E66" r:id="rId127"/>
     <hyperlink ref="H66"/>
     <hyperlink ref="C67"/>
     <hyperlink ref="D67"/>
@@ -5765,122 +6817,122 @@
     <hyperlink ref="D68"/>
     <hyperlink ref="E68"/>
     <hyperlink ref="H68"/>
-    <hyperlink ref="C69" r:id="rId51"/>
-    <hyperlink ref="D69"/>
+    <hyperlink ref="C69" r:id="rId128"/>
+    <hyperlink ref="D69" r:id="rId129"/>
     <hyperlink ref="E69"/>
-    <hyperlink ref="H69"/>
-    <hyperlink ref="C70" r:id="rId52"/>
-    <hyperlink ref="D70"/>
-    <hyperlink ref="E70"/>
-    <hyperlink ref="H70"/>
-    <hyperlink ref="C71" r:id="rId53"/>
-    <hyperlink ref="D71"/>
-    <hyperlink ref="E71"/>
-    <hyperlink ref="H71"/>
-    <hyperlink ref="C72" r:id="rId54"/>
-    <hyperlink ref="D72"/>
-    <hyperlink ref="E72"/>
-    <hyperlink ref="H72"/>
-    <hyperlink ref="C73" r:id="rId55"/>
-    <hyperlink ref="D73"/>
-    <hyperlink ref="E73"/>
-    <hyperlink ref="H73"/>
-    <hyperlink ref="C74" r:id="rId56"/>
-    <hyperlink ref="D74"/>
-    <hyperlink ref="E74"/>
-    <hyperlink ref="H74"/>
+    <hyperlink ref="H69" r:id="rId130"/>
+    <hyperlink ref="C70" r:id="rId131"/>
+    <hyperlink ref="D70" r:id="rId132"/>
+    <hyperlink ref="E70" r:id="rId133"/>
+    <hyperlink ref="H70" r:id="rId134"/>
+    <hyperlink ref="C71" r:id="rId135"/>
+    <hyperlink ref="D71" r:id="rId136"/>
+    <hyperlink ref="E71" r:id="rId137"/>
+    <hyperlink ref="H71" r:id="rId138"/>
+    <hyperlink ref="C72" r:id="rId139"/>
+    <hyperlink ref="D72" r:id="rId140"/>
+    <hyperlink ref="E72" r:id="rId141"/>
+    <hyperlink ref="H72" r:id="rId142"/>
+    <hyperlink ref="C73" r:id="rId143"/>
+    <hyperlink ref="D73" r:id="rId144"/>
+    <hyperlink ref="E73" r:id="rId145"/>
+    <hyperlink ref="H73" r:id="rId146"/>
+    <hyperlink ref="C74" r:id="rId147"/>
+    <hyperlink ref="D74" r:id="rId148"/>
+    <hyperlink ref="E74" r:id="rId149"/>
+    <hyperlink ref="H74" r:id="rId150"/>
     <hyperlink ref="C75"/>
     <hyperlink ref="D75"/>
     <hyperlink ref="E75"/>
     <hyperlink ref="H75"/>
-    <hyperlink ref="C76" r:id="rId57"/>
-    <hyperlink ref="D76"/>
+    <hyperlink ref="C76" r:id="rId151"/>
+    <hyperlink ref="D76" r:id="rId152"/>
     <hyperlink ref="E76"/>
-    <hyperlink ref="H76"/>
-    <hyperlink ref="C77" r:id="rId58"/>
-    <hyperlink ref="D77"/>
-    <hyperlink ref="E77"/>
-    <hyperlink ref="H77"/>
-    <hyperlink ref="C78" r:id="rId59"/>
-    <hyperlink ref="D78"/>
+    <hyperlink ref="H76" r:id="rId153"/>
+    <hyperlink ref="C77" r:id="rId154"/>
+    <hyperlink ref="D77" r:id="rId155"/>
+    <hyperlink ref="E77" r:id="rId156"/>
+    <hyperlink ref="H77" r:id="rId157"/>
+    <hyperlink ref="C78" r:id="rId158"/>
+    <hyperlink ref="D78" r:id="rId159"/>
     <hyperlink ref="E78"/>
-    <hyperlink ref="H78"/>
-    <hyperlink ref="C79" r:id="rId60"/>
-    <hyperlink ref="D79"/>
-    <hyperlink ref="E79"/>
-    <hyperlink ref="H79"/>
+    <hyperlink ref="H78" r:id="rId160"/>
+    <hyperlink ref="C79" r:id="rId161"/>
+    <hyperlink ref="D79" r:id="rId162"/>
+    <hyperlink ref="E79" r:id="rId163"/>
+    <hyperlink ref="H79" r:id="rId164"/>
     <hyperlink ref="C80"/>
     <hyperlink ref="D80"/>
     <hyperlink ref="E80"/>
     <hyperlink ref="H80"/>
-    <hyperlink ref="C81" r:id="rId61"/>
-    <hyperlink ref="D81"/>
-    <hyperlink ref="E81"/>
-    <hyperlink ref="H81"/>
-    <hyperlink ref="C82" r:id="rId62"/>
-    <hyperlink ref="D82"/>
+    <hyperlink ref="C81" r:id="rId165"/>
+    <hyperlink ref="D81" r:id="rId166"/>
+    <hyperlink ref="E81" r:id="rId167"/>
+    <hyperlink ref="H81" r:id="rId168"/>
+    <hyperlink ref="C82" r:id="rId169"/>
+    <hyperlink ref="D82" r:id="rId170"/>
     <hyperlink ref="E82"/>
-    <hyperlink ref="H82"/>
-    <hyperlink ref="C83" r:id="rId63"/>
-    <hyperlink ref="D83"/>
-    <hyperlink ref="E83"/>
-    <hyperlink ref="H83"/>
-    <hyperlink ref="C84" r:id="rId64"/>
-    <hyperlink ref="D84"/>
+    <hyperlink ref="H82" r:id="rId171"/>
+    <hyperlink ref="C83" r:id="rId172"/>
+    <hyperlink ref="D83" r:id="rId173"/>
+    <hyperlink ref="E83" r:id="rId174"/>
+    <hyperlink ref="H83" r:id="rId175"/>
+    <hyperlink ref="C84" r:id="rId176"/>
+    <hyperlink ref="D84" r:id="rId177"/>
     <hyperlink ref="E84"/>
-    <hyperlink ref="H84"/>
+    <hyperlink ref="H84" r:id="rId178"/>
     <hyperlink ref="C85"/>
     <hyperlink ref="D85"/>
     <hyperlink ref="E85"/>
     <hyperlink ref="H85"/>
-    <hyperlink ref="C86" r:id="rId65"/>
-    <hyperlink ref="D86"/>
+    <hyperlink ref="C86" r:id="rId179"/>
+    <hyperlink ref="D86" r:id="rId180"/>
     <hyperlink ref="E86"/>
-    <hyperlink ref="H86"/>
-    <hyperlink ref="C87" r:id="rId66"/>
-    <hyperlink ref="D87"/>
-    <hyperlink ref="E87"/>
-    <hyperlink ref="H87"/>
+    <hyperlink ref="H86" r:id="rId181"/>
+    <hyperlink ref="C87" r:id="rId182"/>
+    <hyperlink ref="D87" r:id="rId183"/>
+    <hyperlink ref="E87" r:id="rId184"/>
+    <hyperlink ref="H87" r:id="rId185"/>
     <hyperlink ref="C88"/>
     <hyperlink ref="D88"/>
     <hyperlink ref="E88"/>
     <hyperlink ref="H88"/>
-    <hyperlink ref="C89" r:id="rId67"/>
-    <hyperlink ref="D89"/>
-    <hyperlink ref="E89"/>
-    <hyperlink ref="H89"/>
+    <hyperlink ref="C89" r:id="rId186"/>
+    <hyperlink ref="D89" r:id="rId187"/>
+    <hyperlink ref="E89" r:id="rId188"/>
+    <hyperlink ref="H89" r:id="rId189"/>
     <hyperlink ref="C90"/>
     <hyperlink ref="D90"/>
     <hyperlink ref="E90"/>
     <hyperlink ref="H90"/>
-    <hyperlink ref="C91" r:id="rId68"/>
-    <hyperlink ref="D91"/>
-    <hyperlink ref="E91"/>
-    <hyperlink ref="H91"/>
+    <hyperlink ref="C91" r:id="rId190"/>
+    <hyperlink ref="D91" r:id="rId191"/>
+    <hyperlink ref="E91" r:id="rId192"/>
+    <hyperlink ref="H91" r:id="rId193"/>
     <hyperlink ref="C92"/>
     <hyperlink ref="D92"/>
     <hyperlink ref="E92"/>
     <hyperlink ref="H92"/>
-    <hyperlink ref="C93" r:id="rId69"/>
-    <hyperlink ref="D93"/>
-    <hyperlink ref="E93"/>
-    <hyperlink ref="H93"/>
-    <hyperlink ref="C94" r:id="rId70"/>
-    <hyperlink ref="D94"/>
-    <hyperlink ref="E94"/>
-    <hyperlink ref="H94"/>
-    <hyperlink ref="C95" r:id="rId71"/>
-    <hyperlink ref="D95"/>
-    <hyperlink ref="E95"/>
-    <hyperlink ref="H95"/>
-    <hyperlink ref="C96" r:id="rId72"/>
-    <hyperlink ref="D96"/>
+    <hyperlink ref="C93" r:id="rId194"/>
+    <hyperlink ref="D93" r:id="rId195"/>
+    <hyperlink ref="E93" r:id="rId196"/>
+    <hyperlink ref="H93" r:id="rId197"/>
+    <hyperlink ref="C94" r:id="rId198"/>
+    <hyperlink ref="D94" r:id="rId199"/>
+    <hyperlink ref="E94" r:id="rId200"/>
+    <hyperlink ref="H94" r:id="rId201"/>
+    <hyperlink ref="C95" r:id="rId202"/>
+    <hyperlink ref="D95" r:id="rId203"/>
+    <hyperlink ref="E95" r:id="rId204"/>
+    <hyperlink ref="H95" r:id="rId205"/>
+    <hyperlink ref="C96" r:id="rId206"/>
+    <hyperlink ref="D96" r:id="rId207"/>
     <hyperlink ref="E96"/>
-    <hyperlink ref="H96"/>
-    <hyperlink ref="C97" r:id="rId73"/>
-    <hyperlink ref="D97"/>
-    <hyperlink ref="E97"/>
-    <hyperlink ref="H97"/>
+    <hyperlink ref="H96" r:id="rId208"/>
+    <hyperlink ref="C97" r:id="rId209"/>
+    <hyperlink ref="D97" r:id="rId210"/>
+    <hyperlink ref="E97" r:id="rId211"/>
+    <hyperlink ref="H97" r:id="rId212"/>
     <hyperlink ref="C98"/>
     <hyperlink ref="D98"/>
     <hyperlink ref="E98"/>
@@ -5889,90 +6941,90 @@
     <hyperlink ref="D99"/>
     <hyperlink ref="E99"/>
     <hyperlink ref="H99"/>
-    <hyperlink ref="C100" r:id="rId74"/>
-    <hyperlink ref="D100"/>
-    <hyperlink ref="E100"/>
-    <hyperlink ref="H100"/>
+    <hyperlink ref="C100" r:id="rId213"/>
+    <hyperlink ref="D100" r:id="rId214"/>
+    <hyperlink ref="E100" r:id="rId215"/>
+    <hyperlink ref="H100" r:id="rId216"/>
     <hyperlink ref="C101"/>
     <hyperlink ref="D101"/>
     <hyperlink ref="E101"/>
     <hyperlink ref="H101"/>
-    <hyperlink ref="C102" r:id="rId75"/>
-    <hyperlink ref="D102"/>
-    <hyperlink ref="E102"/>
-    <hyperlink ref="H102"/>
-    <hyperlink ref="C103" r:id="rId76"/>
-    <hyperlink ref="D103"/>
-    <hyperlink ref="E103"/>
-    <hyperlink ref="H103"/>
+    <hyperlink ref="C102" r:id="rId217"/>
+    <hyperlink ref="D102" r:id="rId218"/>
+    <hyperlink ref="E102" r:id="rId219"/>
+    <hyperlink ref="H102" r:id="rId220"/>
+    <hyperlink ref="C103" r:id="rId221"/>
+    <hyperlink ref="D103" r:id="rId222"/>
+    <hyperlink ref="E103" r:id="rId223"/>
+    <hyperlink ref="H103" r:id="rId224"/>
     <hyperlink ref="C104"/>
     <hyperlink ref="D104"/>
     <hyperlink ref="E104"/>
     <hyperlink ref="H104"/>
-    <hyperlink ref="C105" r:id="rId77"/>
-    <hyperlink ref="D105"/>
+    <hyperlink ref="C105" r:id="rId225"/>
+    <hyperlink ref="D105" r:id="rId226"/>
     <hyperlink ref="E105"/>
-    <hyperlink ref="H105"/>
+    <hyperlink ref="H105" r:id="rId227"/>
     <hyperlink ref="C106"/>
     <hyperlink ref="D106"/>
     <hyperlink ref="E106"/>
     <hyperlink ref="H106"/>
-    <hyperlink ref="C107" r:id="rId78"/>
-    <hyperlink ref="D107"/>
-    <hyperlink ref="E107"/>
+    <hyperlink ref="C107" r:id="rId228"/>
+    <hyperlink ref="D107" r:id="rId229"/>
+    <hyperlink ref="E107" r:id="rId230"/>
     <hyperlink ref="H107"/>
-    <hyperlink ref="C108" r:id="rId79"/>
-    <hyperlink ref="D108"/>
-    <hyperlink ref="E108"/>
-    <hyperlink ref="H108"/>
+    <hyperlink ref="C108" r:id="rId231"/>
+    <hyperlink ref="D108" r:id="rId232"/>
+    <hyperlink ref="E108" r:id="rId233"/>
+    <hyperlink ref="H108" r:id="rId234"/>
     <hyperlink ref="C109"/>
     <hyperlink ref="D109"/>
     <hyperlink ref="E109"/>
     <hyperlink ref="H109"/>
-    <hyperlink ref="C110" r:id="rId80"/>
-    <hyperlink ref="D110"/>
-    <hyperlink ref="E110"/>
-    <hyperlink ref="H110"/>
+    <hyperlink ref="C110" r:id="rId235"/>
+    <hyperlink ref="D110" r:id="rId236"/>
+    <hyperlink ref="E110" r:id="rId237"/>
+    <hyperlink ref="H110" r:id="rId238"/>
     <hyperlink ref="C111"/>
     <hyperlink ref="D111"/>
     <hyperlink ref="E111"/>
     <hyperlink ref="H111"/>
-    <hyperlink ref="C112" r:id="rId81"/>
-    <hyperlink ref="D112"/>
-    <hyperlink ref="E112"/>
-    <hyperlink ref="H112"/>
+    <hyperlink ref="C112" r:id="rId239"/>
+    <hyperlink ref="D112" r:id="rId240"/>
+    <hyperlink ref="E112" r:id="rId241"/>
+    <hyperlink ref="H112" r:id="rId242"/>
     <hyperlink ref="C113"/>
     <hyperlink ref="D113"/>
     <hyperlink ref="E113"/>
     <hyperlink ref="H113"/>
-    <hyperlink ref="C114" r:id="rId82"/>
-    <hyperlink ref="D114"/>
-    <hyperlink ref="E114"/>
-    <hyperlink ref="H114"/>
-    <hyperlink ref="C115" r:id="rId83"/>
-    <hyperlink ref="D115"/>
-    <hyperlink ref="E115"/>
-    <hyperlink ref="H115"/>
+    <hyperlink ref="C114" r:id="rId243"/>
+    <hyperlink ref="D114" r:id="rId244"/>
+    <hyperlink ref="E114" r:id="rId245"/>
+    <hyperlink ref="H114" r:id="rId246"/>
+    <hyperlink ref="C115" r:id="rId247"/>
+    <hyperlink ref="D115" r:id="rId248"/>
+    <hyperlink ref="E115" r:id="rId249"/>
+    <hyperlink ref="H115" r:id="rId250"/>
     <hyperlink ref="C116"/>
     <hyperlink ref="D116"/>
     <hyperlink ref="E116"/>
     <hyperlink ref="H116"/>
-    <hyperlink ref="C117" r:id="rId84"/>
-    <hyperlink ref="D117"/>
-    <hyperlink ref="E117"/>
-    <hyperlink ref="H117"/>
+    <hyperlink ref="C117" r:id="rId251"/>
+    <hyperlink ref="D117" r:id="rId252"/>
+    <hyperlink ref="E117" r:id="rId253"/>
+    <hyperlink ref="H117" r:id="rId254"/>
     <hyperlink ref="C118"/>
     <hyperlink ref="D118"/>
     <hyperlink ref="E118"/>
     <hyperlink ref="H118"/>
-    <hyperlink ref="C119" r:id="rId85"/>
-    <hyperlink ref="D119"/>
-    <hyperlink ref="E119"/>
-    <hyperlink ref="H119"/>
-    <hyperlink ref="C120" r:id="rId86"/>
-    <hyperlink ref="D120"/>
-    <hyperlink ref="E120"/>
-    <hyperlink ref="H120"/>
+    <hyperlink ref="C119" r:id="rId255"/>
+    <hyperlink ref="D119" r:id="rId256"/>
+    <hyperlink ref="E119" r:id="rId257"/>
+    <hyperlink ref="H119" r:id="rId258"/>
+    <hyperlink ref="C120" r:id="rId259"/>
+    <hyperlink ref="D120" r:id="rId260"/>
+    <hyperlink ref="E120" r:id="rId261"/>
+    <hyperlink ref="H120" r:id="rId262"/>
     <hyperlink ref="C121"/>
     <hyperlink ref="D121"/>
     <hyperlink ref="E121"/>
@@ -5981,82 +7033,82 @@
     <hyperlink ref="D122"/>
     <hyperlink ref="E122"/>
     <hyperlink ref="H122"/>
-    <hyperlink ref="C123" r:id="rId87"/>
-    <hyperlink ref="D123"/>
-    <hyperlink ref="E123"/>
-    <hyperlink ref="H123"/>
-    <hyperlink ref="C124" r:id="rId88"/>
-    <hyperlink ref="D124"/>
-    <hyperlink ref="E124"/>
-    <hyperlink ref="H124"/>
+    <hyperlink ref="C123" r:id="rId263"/>
+    <hyperlink ref="D123" r:id="rId264"/>
+    <hyperlink ref="E123" r:id="rId265"/>
+    <hyperlink ref="H123" r:id="rId266"/>
+    <hyperlink ref="C124" r:id="rId267"/>
+    <hyperlink ref="D124" r:id="rId268"/>
+    <hyperlink ref="E124" r:id="rId269"/>
+    <hyperlink ref="H124" r:id="rId270"/>
     <hyperlink ref="C125"/>
     <hyperlink ref="D125"/>
     <hyperlink ref="E125"/>
     <hyperlink ref="H125"/>
-    <hyperlink ref="C126" r:id="rId89"/>
-    <hyperlink ref="D126"/>
-    <hyperlink ref="E126"/>
-    <hyperlink ref="H126"/>
-    <hyperlink ref="C127" r:id="rId90"/>
-    <hyperlink ref="D127"/>
-    <hyperlink ref="E127"/>
-    <hyperlink ref="H127"/>
+    <hyperlink ref="C126" r:id="rId271"/>
+    <hyperlink ref="D126" r:id="rId272"/>
+    <hyperlink ref="E126" r:id="rId273"/>
+    <hyperlink ref="H126" r:id="rId274"/>
+    <hyperlink ref="C127" r:id="rId275"/>
+    <hyperlink ref="D127" r:id="rId276"/>
+    <hyperlink ref="E127" r:id="rId277"/>
+    <hyperlink ref="H127" r:id="rId278"/>
     <hyperlink ref="C128"/>
     <hyperlink ref="D128"/>
     <hyperlink ref="E128"/>
     <hyperlink ref="H128"/>
-    <hyperlink ref="C129" r:id="rId91"/>
-    <hyperlink ref="D129"/>
-    <hyperlink ref="E129"/>
-    <hyperlink ref="H129"/>
-    <hyperlink ref="C130" r:id="rId92"/>
-    <hyperlink ref="D130"/>
-    <hyperlink ref="E130"/>
-    <hyperlink ref="H130"/>
-    <hyperlink ref="C131" r:id="rId93"/>
-    <hyperlink ref="D131"/>
-    <hyperlink ref="E131"/>
-    <hyperlink ref="H131"/>
+    <hyperlink ref="C129" r:id="rId279"/>
+    <hyperlink ref="D129" r:id="rId280"/>
+    <hyperlink ref="E129" r:id="rId281"/>
+    <hyperlink ref="H129" r:id="rId282"/>
+    <hyperlink ref="C130" r:id="rId283"/>
+    <hyperlink ref="D130" r:id="rId284"/>
+    <hyperlink ref="E130" r:id="rId285"/>
+    <hyperlink ref="H130" r:id="rId286"/>
+    <hyperlink ref="C131" r:id="rId287"/>
+    <hyperlink ref="D131" r:id="rId288"/>
+    <hyperlink ref="E131" r:id="rId289"/>
+    <hyperlink ref="H131" r:id="rId290"/>
     <hyperlink ref="C132"/>
     <hyperlink ref="D132"/>
     <hyperlink ref="E132"/>
     <hyperlink ref="H132"/>
-    <hyperlink ref="C133" r:id="rId94"/>
-    <hyperlink ref="D133"/>
-    <hyperlink ref="E133"/>
-    <hyperlink ref="H133"/>
+    <hyperlink ref="C133" r:id="rId291"/>
+    <hyperlink ref="D133" r:id="rId292"/>
+    <hyperlink ref="E133" r:id="rId293"/>
+    <hyperlink ref="H133" r:id="rId294"/>
     <hyperlink ref="C134"/>
     <hyperlink ref="D134"/>
     <hyperlink ref="E134"/>
     <hyperlink ref="H134"/>
-    <hyperlink ref="C135" r:id="rId95"/>
-    <hyperlink ref="D135"/>
-    <hyperlink ref="E135"/>
-    <hyperlink ref="H135"/>
+    <hyperlink ref="C135" r:id="rId295"/>
+    <hyperlink ref="D135" r:id="rId296"/>
+    <hyperlink ref="E135" r:id="rId297"/>
+    <hyperlink ref="H135" r:id="rId298"/>
     <hyperlink ref="C136"/>
     <hyperlink ref="D136"/>
     <hyperlink ref="E136"/>
     <hyperlink ref="H136"/>
-    <hyperlink ref="C137" r:id="rId96"/>
-    <hyperlink ref="D137"/>
-    <hyperlink ref="E137"/>
-    <hyperlink ref="H137"/>
-    <hyperlink ref="C138" r:id="rId97"/>
-    <hyperlink ref="D138"/>
-    <hyperlink ref="E138"/>
-    <hyperlink ref="H138"/>
-    <hyperlink ref="C139" r:id="rId98"/>
-    <hyperlink ref="D139"/>
-    <hyperlink ref="E139"/>
-    <hyperlink ref="H139"/>
-    <hyperlink ref="C140" r:id="rId99"/>
-    <hyperlink ref="D140"/>
-    <hyperlink ref="E140"/>
-    <hyperlink ref="H140"/>
-    <hyperlink ref="C141" r:id="rId100"/>
-    <hyperlink ref="D141"/>
-    <hyperlink ref="E141"/>
-    <hyperlink ref="H141"/>
+    <hyperlink ref="C137" r:id="rId299"/>
+    <hyperlink ref="D137" r:id="rId300"/>
+    <hyperlink ref="E137" r:id="rId301"/>
+    <hyperlink ref="H137" r:id="rId302"/>
+    <hyperlink ref="C138" r:id="rId303"/>
+    <hyperlink ref="D138" r:id="rId304"/>
+    <hyperlink ref="E138" r:id="rId305"/>
+    <hyperlink ref="H138" r:id="rId306"/>
+    <hyperlink ref="C139" r:id="rId307"/>
+    <hyperlink ref="D139" r:id="rId308"/>
+    <hyperlink ref="E139" r:id="rId309"/>
+    <hyperlink ref="H139" r:id="rId310"/>
+    <hyperlink ref="C140" r:id="rId311"/>
+    <hyperlink ref="D140" r:id="rId312"/>
+    <hyperlink ref="E140" r:id="rId313"/>
+    <hyperlink ref="H140" r:id="rId314"/>
+    <hyperlink ref="C141" r:id="rId315"/>
+    <hyperlink ref="D141" r:id="rId316"/>
+    <hyperlink ref="E141" r:id="rId317"/>
+    <hyperlink ref="H141" r:id="rId318"/>
     <hyperlink ref="C142"/>
     <hyperlink ref="D142"/>
     <hyperlink ref="E142"/>
